--- a/deuChatbot/research_result/table_to_json(2000_300).xlsx
+++ b/deuChatbot/research_result/table_to_json(2000_300).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20619,6 +20619,6802 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으며, 실기시험의 준비물, 주제, 화지 크기 및 시험 시간을 정확하게 언급하고 있습니다. 그러나 예시로 제시된 주제들이 원본 텍스트와 완전히 일치하지 않아서 점수를 4로 평가했습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 그러나 예시 주제에서 약간의 차이가 있어 완전한 일관성은 없지만, 전반적으로 일관된 정보를 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기시험에 대한 정보를 직접적으로 다루고 있습니다. 따라서 매우 높은 관련성을 가지고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 정확하지만, 일부 예시 주제에서 차이가 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 사실성과 정확성에서 약간의 차이가 있어 4로 평가했습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.8175857438470167</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 분야에서 기초디자인과 사고의 전환 두 가지 종목을 선택하여 준비해야 합니다.
+1. **기초디자인**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 잠자리와 저울, 콜라병과 계절 등이 있습니다.
+   - **화지크기**: 켄트지3절입니다.
+   - **시간**: 5시간 동안 진행됩니다.
+2. **사고의 전환**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 콜라병과 계절, 바이러스와 자유 등이 있습니다.
+   - **화지크기**: 켄트지2절입니다.
+   - **시간**: 5시간 동안 진행됩니다.
+실기시험은 각 분야별로 주제를 추첨을 통해 결정되므로, 다양한 주제에 대한 준비가 필요합니다. 또한 시간이 길기 때문에 집중력을 유지하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기 종목, 준비물, 실기 주제, 화지 크기, 시간에 대한 정보가 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 포인트에 직접적으로 관련되어 있으며, 필요한 모든 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 직관적이며, 이해하기 쉽습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.8706908064829156</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 '기초디자인'과 '사고의 전환' 두 가지입니다.
+1. **실기종목**:
+   - 기초디자인
+   - 사고의 전환
+2. **준비물**:
+   - 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+3. **실기주제**:
+   - 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다.
+     - 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+     - 제공된 사물과 이미지 이외의 형상은 표현하지 마세요. 제공된 사물은 모두 1회 이상 표현해야 합니다.
+     - 제공된 사물의 색상은 변경하지 마세요.
+4. **화지크기**:
+   - 켄트지3절
+5. **시간**:
+   - 5시간
+이 정보를 바탕으로 디자인조형학과의 실기 준비에 도움을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 인정대회 목록이 완전하게 나열되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.865211727994431</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과에서 배드민턴(남)과 축구(남)의 경우, 다음과 같은 대회가 인정대회로 지정되어 있습니다.
+배드민턴(남):
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남):
+-춘계한국고등학교축구연맹전
+-추계한국고등학교축구연맹전
+-대한축구협회장배전국고등학교축구대회
+-문화체육관광부장관기전국고등학교축구대회
+-백운기전국고등학교축구대회
+-전국고등축구리그(권역별고교축구리그)
+-전국고등축구리그왕중왕전
+-무학기전국고등학교축구대회
+-청룡기전국고등학교축구대회
+-백록기전국고등학교축구대회
+-금강대기전국고등학교축구대회
+-대통령금배전국고등학교축구대회
+-금석배전국고등학생축구대회
+-부산MBC전국고등학생축구대회
+-K리그 U18 챔피언십
+-K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기반으로 학생들의 경기실적이 평가됩니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 주제A와 주제B의 항목들을 올바르게 나열하고 있습니다. 또한, 시험 당일의 주제 선정 방식도 정확하게 설명하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 주제 선정 과정에 대한 설명이 원본과 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 기초디자인 실기시험에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 자연스러운 표현이 사용되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 잘 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성에 문제가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.7793197938557878</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩을 선정하여 연결된 주제를 작성해야 합니다. 예시로 주제A는 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 중에서 선택하고, 주제B는 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음 중에서 선택하여 연결된 주제를 작성합니다. 당일에 추첨을 통해 실제 선정되는 주제가 결정됩니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 사실과 상반된 내용을 담고 있습니다. 학생부종합전형에서 출결 점수가 반영된다고 주장하고 있으며, 이는 원문과 명백히 모순됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 일치하지 않으며, 서로 상반된 정보를 제공합니다. 원문에서는 출결 점수가 반영되지 않는다고 명시하고 있지만, 생성된 응답에서는 반영된다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 출결 점수에 대한 정보를 제공하지만, 원문에서 질문한 내용과는 관련이 없습니다. 원문은 학생부 교과 전형에 대한 질문인데, 생성된 응답은 학생부종합전형에 대한 정보를 포함하고 있어 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적인 점이 있습니다. 원문과의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있습니다. 따라서 정확성 점수는 최하점인 1로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계에서 전반적으로 부정확하고 비일관적입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 주제와도 맞지 않습니다. 따라서 의미적 적절성 점수는 최하점인 1로 평가됩니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 부정확성과 관련성 부족으로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 중간 정도로 평가됩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.6132613823454331</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 나군 학생부종합전형에서는 출결 상황이 반영됩니다. 결석일수에 따라 다음과 같이 반영점수가 결정됩니다:
+- 0~2일 결석 시 : 120점
+- 3~6일 결석 시 : 90점 
+- 7~12일 결석 시 : 60점
+- 13~20일 결석 시 : 30점
+- 21일 이상 결석 시 : 0점
+따라서 출결 점수가 학생부종합전형에서 중요한 요소 중 하나로 작용합니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 모집 인원 수와 전형에 대한 정보를 정확하게 반영하고 있으며, 연도만 추가되었을 뿐 사실적인 내용은 변하지 않았습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.926506747476267</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반 학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집인원에 대한 정보를 완전히 잘못 전달하고 있습니다. 원본 텍스트에서는 영어영문학과가 다군 일반학생 전형을 통해 28명을 선발한다고 명확히 언급하고 있지만, 생성된 응답은 해당 정보를 부정하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본에서 제공된 정보와는 전혀 일치하지 않으며, 모순된 주장을 하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하지 않으며, 원본 텍스트의 핵심 내용과 관련이 없습니다. 따라서 매우 낮은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문법적으로는 비교적 잘 작성되었으나, 내용의 부정확성으로 인해 전체적인 흐름이 방해받고 있습니다. 문장은 명확하지만, 정보의 정확성이 결여되어 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 정보가 서로 연결되지 않고, 주제가 흐트러져 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 가장 낮은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해할 수 있지만, 정보의 부정확성으로 인해 혼란을 초래할 수 있습니다. 따라서 중간 점수를 부여합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.5603031188663301</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 인문사회과학대학의 영어영문학과에 대한 모집인원이 없습니다. 다른 계열이나 단과대학의 모집인원만 기재되어 있습니다.
+따라서 정확한 답변을 드리기 위해서는 "나군 일반학생 전형 모집단위 및 모집인원" 정보를 확인하거나, 제공된 링크를 참조해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원에 대한 정확한 정보를 제공하지 않고 있으며, 원본 텍스트에서 명시된 "총 22명의 신입생"이라는 사실을 완전히 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 모집 인원이 22명이라고 명확히 언급하고 있지만, 생성된 응답은 이 정보를 부정하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 정보인 모집 인원에 대한 질문에 대한 답변을 제공하지 않고 있습니다. 그러나 웹사이트를 참조하라는 제안은 관련성이 있지만, 전체적으로는 주제와 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 정보의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 관계가 명확하지 않아 일관성이 떨어집니다. 정보가 서로 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 모집 인원에 대한 정확한 정보를 제공하지 않습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 반영하지 못하고 있습니다. 정보가 부정확하여 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 정보의 부정확성으로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.6187441671262243</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 모집 인원은 제공된 정보에서 확인할 수 없습니다. 추가로 확인하시려면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 영어 등급에 따른 점수를 제공하는 대신 평균과 표준 편차를 언급하고 있습니다. 이는 원본 텍스트의 정보와 전혀 관련이 없으며, 잘못된 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트는 각 등급에 대한 점수를 명시하고 있지만, 생성된 응답은 평균과 표준 편차에 대한 정보를 제공합니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 수능 영어 등급에 따른 점수를 요구하고 있지만, 생성된 응답은 다른 통계적 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 전체적인 품질이 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 평균과 표준 편차에 대한 설명이 포함되어 있지만, 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적으로 이해하기 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.6876044838583732</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 평균: 3.13
+- 표준 편차: 1.03
+이 데이터는 특정 모집단위에서의 수능 영어 등급의 평균 점수와 그 표준 편차를 나타냅니다. 이 값들은 해당 단과대학 및 모집단위별로 다소 차이가 있을 수 있으므로, 정확한 정보를 얻기 위해서는 각각의 모집단위에 대한 자세한 데이터를 확인해보시는 것이 좋습니다.
+더 자세한 정보나 다른 질문이 있으시다면 알려주세요!</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형에 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문에서 예술고 학생은 지원할 수 없다고 명시했으나, 생성된 응답은 지원할 수 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 예술고 학생의 지원 가능성에 대한 잘못된 정보를 제공하지만, 지원 가능한 모집단위에 대한 언급은 관련성이 있습니다. 그러나 잘못된 정보로 인해 전체적으로 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성이 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 원문과의 불일치로 인해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 잘못된 정보로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 일부 적절한 부분이 있지만, 잘못된 정보로 인해 전체적인 의미 전달이 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.6397409842250431</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생도 나군의 농어촌학생전형을 지원할 수 있습니다. 그러나 지원 가능한 모집단위가 제한적일 수 있으므로, 지원 가능 모집단위를 확인해야 합니다.
+특히, 예술고 학생은 예체능 계열에 지원하는 것이 적합할 것입니다. 예시로, "ICT융합공과대학"의 "영화학과"는 예체능 계열에 해당합니다. 이와 같이 예술고 학생이 지원 가능한 모집단위를 확인한 후 지원을 진행하시면 좋습니다.
+또한, 농어촌학생전형의 지원 자격 및 제출 서류 등은 위에서 제공된 정보를 참고하여 확인해보시기 바랍니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 기록과 배점에 대한 정보가 모두 잘못되었습니다. 원본 텍스트의 기록은 218~221 cm이고 배점은 275점인데, 생성된 응답에서는 206~209 cm와 175점으로 잘못 기재되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 완전히 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 주제와 관련이 있으며, 레저스포츠학과 여자 제자리 멀리뛰기에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, 내용의 정확성에 문제가 있어 점수를 약간 낮추었습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 문장 간의 흐름이 자연스럽습니다. 그러나 내용의 정확성 문제로 인해 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 1
+   - 제공된 정보가 원본 텍스트와 전혀 일치하지 않으므로 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 사실성과 정확성에서 큰 문제가 있으며, 일관성도 부족합니다. 그러나 관련성과 유창성은 어느 정도 유지되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 주제에 맞는 정보를 제공하고 있으나, 잘못된 사실로 인해 적절성 점수가 낮아졌습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8924910680512802</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 206~209cm이며, 이 기록에 대한 배점은 175점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있습니다. 그러나 추가된 정보인 학생부교과와 서류(경기실적)의 비율은 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 출결 비율에 대한 정보를 제공하지만, 추가된 다른 비율 정보가 원본 텍스트와 일치하지 않거나 관련성이 떨어질 수 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 출결 비율에 대한 설명이 명확하게 이어집니다. 그러나 추가된 정보가 원본 텍스트와의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 비율에 대한 정보는 정확하지만, 추가된 다른 비율 정보는 원본 텍스트에 포함되어 있지 않으므로 정확성 점수는 약간 낮아집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이지만, 원본 텍스트와의 일관성 및 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 출결 비율에 대한 설명이 원본 텍스트의 맥락과 잘 맞아떨어집니다. 그러나 추가된 정보가 맥락을 약간 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 다만, 추가된 정보가 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.6412004243835658</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 경기지도학과에서 출결은 총 모집요소 중 12%에 해당합니다.
+출결이 경기지도학과에서 전체 모집요소 중 차지하는 비율은 다음과 같습니다:
+- 학생부교과: 18%
+- 출결: 12%
+- 서류(경기실적): 70%
+따라서 출결은 총점 계산 시에 12%의 가중치를 가지게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 모집 인원과 학과명, 학년도 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.9383435883085819</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 물리치료학과에 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 실기고사 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.5093164222002108</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024. 01. 17.(수)에 있습니다.
+대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 원문 내용을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 일관되며, 수능 최저 기준이 없다는 점을 명확히 하고 있습니다. 다른 학과와의 비교도 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 질문한 내용에 직접적으로 관련된 정보를 제공하고 있으며, 추가적인 정보도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제공된 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.4710314256726117</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 경우, 제공된 정보에서는 수능 최저기준이 명시되어 있지 않습니다. 다른 학과들의 경우 '수능최저기준 없음'이라고 표기되어 있지만, 응용화학과에 대한 구체적인 수능 최저기준은 없습니다.
+더 자세한 정보를 얻으려면, 동의대학교의 공식 웹사이트(https://ipsi.deu.ac.kr/main.do)를 방문하여 확인하거나, 학교 관계자에게 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트에 있는 모든 학과를 정확하게 나열하고 있으며, 사실적으로 정확합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.7655540507647695</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 "심리학과", "스마트항만물류학과", "창업투자경영학과", "라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)", "경기지도학과" 등이 있습니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 전형요소 반영비율에 대한 명확한 정보를 제공하지 않고, 오히려 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 사실과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 전형요소 반영비율에 대한 정보를 부정하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않지만, 관련된 정보(공식 홈페이지 링크)를 언급하고 있습니다. 그러나 주된 질문에 대한 답변이 부족하여 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전형요소 반영비율에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 정보가 없다는 주장은 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 정보의 부족으로 인해 질문에 대한 이해가 어려울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.6343900014044449</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)에 대한 전형요소 반영비율에 대한 명확한 데이터가 없습니다. 이와 관련하여 자세한 내용을 확인하려면 공식 홈페이지를 참조하거나 관계 부서에 문의해보시는 것이 좋습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 동의대학교의 공식 웹사이트를 방문하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과들을 나열하고 있으며, 공과대학과 ICT융합공과대학이 포함되어 있습니다. 그러나 원문에 언급된 의료·보건·생활대학이 누락되어 있어 완전한 사실성을 갖추지 못했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 의료·보건·생활대학이 포함되지 않아 일관성이 떨어집니다. 또한, 인공지능학과에 대한 언급이 추가되어 있지만, 원문에서는 이 학과에 대한 정보가 없으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요구하는 정보와 직접적으로 관련이 있으며, 수능 가산점이 적용되는 학과들에 대한 구체적인 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과에 대한 설명이 명확하게 이어집니다. 그러나 의료·보건·생활대학의 누락으로 인해 완전한 일관성을 갖추지 못했습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 원문에 포함된 의료·보건·생활대학이 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이지만, 일부 정보의 누락으로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 일부 정보의 누락으로 인해 완전한 적절성을 갖추지 못했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 긴 문장으로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.6474579103042341</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과들은 공과대학과 ICT융합공과대학입니다. 
+공과대학의 경우, 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과 등에서 수능 가산점이 적용됩니다.
+ICT융합공과대학의 경우, 컴퓨터공학과와 소프트웨어공학부에서도 수능 가산점이 적용됩니다. 
+인공지능학과는 실기/실적 전형으로 분류되어 있어, 수능 가산점을 적용하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 수능 성적 반영 방법에 대한 구체적인 내용을 제공하고 있지만, 원본 텍스트에서 언급된 "100% 반영"이라는 중요한 사실을 누락하고 있습니다. 또한, 제공된 세부 사항은 원본 텍스트와 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 모순되는 정보를 포함하고 있습니다. 원본 텍스트는 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 구체적인 과목과 성적 평균을 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 수능 성적 반영에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 "100% 반영"이라는 점을 간과하고 있습니다. 따라서 관련성은 있지만, 주요 포인트를 놓치고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 구조적으로 나누어져 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다. 정보가 잘 정리되어 있으나, 원본과의 관계가 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 핵심 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받고 있습니다. 원본 텍스트와의 관계가 매우 약합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 수능 성적 반영에 대한 정보를 제공하지만, 원본 텍스트의 의미와 맥락을 제대로 반영하지 못하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관계가 불명확하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7448219749193418</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적을 다음과 같이 반영합니다.
+1. **반영과목**: 국어, 수학, 영어교과 중 석차등급 상위 8과목
+2. **성적 평균 및 표준 편차**:
+   - **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 
+     - 평균: 303.44
+     - 표준 편차: 10.34
+   - **영어 등급**:
+     - 평균: 3.88
+     - 표준 편차: 0.31
+   - **수능 4개 영역 등급**:
+     - 평균: 4.65
+     - 표준 편차: 0.21
+   - **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**:
+     - 평균: 419.33
+     - 표준 편차: 9.73
+이러한 방식으로 수능 성적을 반영합니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사의 날짜를 정확하게 언급하고 있으며, 추가적인 정보(대기실 및 입실시간 안내)도 제공하고 있습니다. 그러나 원본 텍스트에 포함되지 않은 링크가 추가되어 있어 완전한 일치성은 없습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 잘 반영하고 있으며, 날짜와 관련된 정보는 일관성을 유지하고 있습니다. 그러나 링크와 추가 정보가 포함되어 있어 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 날짜와 관련된 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 정보가 원본 텍스트와의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 날짜와 관련된 정보는 정확하지만, 추가된 링크와 정보는 원본 텍스트에 포함되어 있지 않으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 품질을 유지하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본의 의미를 약간 변형할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.811520118903246</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 1월 16일(화)에 있습니다. 
+참조하시려면 아래 링크를 확인해주세요.
+https://ipsi.deu.ac.kr/main.do
+대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 한의예과와 경기지도학과가 제외된다는 사실을 누락하고, 레저스포츠학과와 태권도학과가 포함된다고 잘못 언급하고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 전형료에 대한 정보가 추가되었지만, 모집단위의 제외 목록이 잘못되어 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 응답은 전형료에 대한 정보를 포함하고 있지만, 원문에서 요구하는 모집단위의 제외에 대한 질문에 대한 직접적인 답변이 아닙니다. 일부 관련성은 있지만, 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류가 없습니다. 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 전형료에 대한 설명과 제외된 모집단위에 대한 결론을 포함하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 응답은 원문에서 제공된 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 응답이 원문과 일치하지 않으며, 전반적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 응답의 의미는 일부 적절하지만, 원문과의 맥락이 맞지 않아 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기 어렵지 않지만, 내용의 정확성이 떨어져 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.7047714608860504</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과는 전형료가 다른 금액으로 부과됩니다. 이 모집단위들은 일반적으로 나군 수능(일반학생전형)의 전형료에 포함되지 않습니다.
+따라서, 나군 수능(일반학생전형)에서 제외된 모집단위는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과입니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 점에서 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제를 직접적으로 다루고 있으며, 관련된 정보를 추가로 제공하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.865716157362081</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. "다군 수능(일반학생전형) 전 모집단위"에 대한 정보를 보면, "수능최저기준" 항목에서 "수능최저기준 없음"이라고 명시되어 있습니다.
+따라서, 2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 "보육·가정상담학과"가 "아동학과"로 변경되었다고 정확하게 언급하고 있으며, 학부에서 학과로 분리된 사실도 언급하고 있습니다. 그러나 다른 학과에 대한 정보는 포함되어 있지 않아 전체적인 사실성을 완벽하게 반영하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, "보육·가정상담학과"의 변경 사항을 정확히 반영하고 있습니다. 그러나 다른 학과에 대한 언급이 없기 때문에 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 학과의 분리 및 명칭 변경에 직접적으로 관련이 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 다른 학과에 대한 정보가 부족하여 완전한 일관성은 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 "보육·가정상담학과"의 변경 사항을 정확하게 반영하고 있지만, 다른 학과에 대한 정보가 누락되어 있어 전체적인 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 사실성에서 높은 점수를 받습니다. 그러나 다른 학과에 대한 정보가 부족하여 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 다른 학과에 대한 언급이 없기 때문에 의미의 완전성은 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 다만, 다른 학과에 대한 정보가 부족하여 전체적인 이해도는 다소 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.5321924024422828</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 "보육·가정상담학과"가 "아동학과"로 명칭이 변경되었습니다. 또한, 이 학과는 구분명에서도 학부에서 학과로 분리된 것으로 나타나 있습니다.
+따라서 2024학년도 동의대학교에서는 "보육·가정상담학과"가 "아동학과"로 명칭이 변경되었고, 이는 학부에서 학과로 분리된 것입니다.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일에 대한 정확한 정보를 제공하고 있으며, 원서접수 일정에 대한 추가 정보도 포함되어 있습니다. 따라서 사실성 점수는 5입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 내용과 충돌하지 않습니다. 따라서 일관성 점수는 5입니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 원서접수 마감일과 관련된 추가 정보를 제공합니다. 따라서 관련성 점수는 5입니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬운 문장 구조를 가지고 있습니다. 따라서 유창성 점수는 5입니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 따라서 일관성 점수는 5입니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 정확합니다. 따라서 정확성 점수는 5입니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다. 따라서 다차원 품질 점수는 5입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 따라서 의미 적합성 점수는 5입니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 정보를 전달하고 있습니다. 따라서 이해 가능성 점수는 5입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.7774311956593706</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 원서접수 마감일은 1월 6일(토) 18시까지입니다.
+원서접수 일정은 다음과 같습니다:
+- 인터넷 원서접수: 2024. 01. 03.(수)～2024. 01. 06.(토) 마감일 18시까지
+자세한 내용은 입학안내 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 전형 요소 변화에 대한 정보가 전혀 없다고 주장하고 있지만, 원본 텍스트에서는 여러 전형의 구체적인 변화가 명시되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 완전히 상반된 내용을 담고 있습니다. 원본에서는 전형 요소의 변화가 명확히 설명되고 있는데, 생성된 응답은 변화가 없다고 주장합니다. 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본에서 다루고 있는 전형 요소의 변화에 대한 정보가 전혀 반영되지 않았습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용의 부정확성으로 인해 전체적인 의미 전달이 방해받고 있습니다. 문장 구조는 매끄럽습니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와의 연결이 없기 때문에 일관된 논리적 흐름이 부족합니다. 그러나 내부적으로는 어느 정도의 일관성을 유지하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 전형 요소 변화에 대한 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 모든 품질 차원에서 매우 낮은 점수를 받습니다. 사실성, 일관성, 관련성, 정확성 모두에서 심각한 결함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않습니다. 전형 요소 변화에 대한 정보가 전혀 반영되지 않았습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 혼란을 초래할 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.6320051460859061</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 변화가 있는 전형은 없습니다. 모든 전형에서 수능 최저 기준이 없으며, 학생부 교과와 출결, 서류, 면접, 실기 등의 요소가 반영되지 않습니다. 각 전형별로 수능 점수만 100%의 비율로 반영되고 있습니다.
+만약 추가 정보나 특정 전형에 대한 자세한 내용이 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기/실적 전형에 대한 정보를 제공하고 있지만, 나군 전형에 대한 내용으로 잘못된 정보를 포함하고 있습니다. 원문에서는 가군 전형의 실기 비중이 70%라고 명시되어 있으나, 생성된 응답은 나군 전형에 대한 설명을 하고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있으며, 나군 전형에 대한 설명이 포함되어 있어 일관성이 부족합니다. 원문에서 언급된 가군 전형의 실기 비중에 대한 정보가 누락되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 전형에 대한 정보를 제공하고 있지만, 가군 전형에 대한 질문에 나군 전형에 대한 정보가 포함되어 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 포함하고 있지만, 가군 전형에 대한 질문에 나군 전형에 대한 정보가 포함되어 있어 논리적인 흐름이 약간 깨집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하지 않으며, 나군 전형에 대한 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 의미가 통하지만, 질문의 맥락과는 맞지 않는 정보가 포함되어 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 나군 전형에 대한 정보가 포함되어 있어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.5704375574043622</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 실기/실적 전형에서는 실기가 주요한 역할을 합니다. 
+- **나군 수능(일반학생전형)**: 수능 점수가 100% 반영되며, 실기는 반영되지 않습니다.
+- **나군 실기/실적(경기실적우수자전형)**: 실기가 매우 중요하며, 서류 성적이 70%를 차지합니다. 
+- **나군 실기/실적(일반학생전형)**: 이 경우에도 실기는 중요한 요소로, 서류 성적이 70%를 차지합니다.
+따라서, 나군 실기/실적 전형에서 실기가 차지하는 비중은 매우 높습니다. 특히 경기실적우수자전형과 일반학생전형에서는 서류보다 실기가 더 큰 비중을 차지하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 세부 전공의 목록이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8509960146052585</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설되는 라이프융합학부는 세부 전공으로 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학을 구성하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 체육학과와 레저스포츠학과가 실기고사에 참여해야 한다고 명시되어 있지만, 생성된 응답에서는 가군에서 실기고사를 치르는 학과가 없다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 실기고사에 참여해야 하는 학과를 명시하고 있지만, 생성된 응답은 그러한 학과가 없다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 가군에서 실기고사에 참여해야 하는 학과에 대한 질문에 대한 답변으로는 적절하지 않습니다. 나군의 전형에 대한 정보는 포함되어 있지만, 질문의 핵심인 가군의 실기고사 학과에 대한 정보는 잘못된 내용으로 대체되었습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 나군의 전형에 대한 정보를 포함하고 있지만, 가군에 대한 질문과의 연결이 약합니다. 정보의 흐름이 다소 일관되지 않으며, 주제 전환이 자연스럽지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 가군에서 실기고사를 치르는 학과에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 질문의 맥락과는 맞지 않는 정보를 제공합니다. 가군에 대한 질문에 대해 나군의 정보를 제공하는 것은 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.6538558310274935</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 실기고사를 치르는 학과가 없습니다. "가군"은 주로 수능 기반으로 모집하는 전형이며, 해당 전형에서는 실기고사는 필요하지 않습니다.
+만약 다른 전형(예: 나군)에서 실기고사가 필요한 경우, 다음과 같은 학과들이 실기고사를 치릅니다:
+- 레저스포츠학과 (태권도학과 포함)
+- 디자인조형학과 (시각디자인, 산업디자인, 공예디자인 포함)
+하지만 이는 나군의 전형이며, 주제에 따른 가군에서는 해당되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 실기/실적 위주 전형 지원 가능한 학과 목록을 잘못 제시하고 있습니다. 원본 텍스트에 명시된 학과들과는 전혀 다른 학과들이 나열되어 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본에서 언급된 학과들은 포함되어 있지 않으며, 서로 다른 학과들이 나열되어 있어 상충하는 정보가 많습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본에서 요구하는 실기/실적 위주 전형 지원 가능한 학과에 대한 정보가 아닌, 전혀 다른 학과들에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 일관되지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 적절하지 않은 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.6667730796805376</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 기계공학과
+2. 로봇자동화공학과
+3. 자동차공학과
+4. 신소재공학과
+5. 고분자나노공학과
+6. 건축학과(5년제)
+7. 건축공학과
+8. 토목공학과
+9. 도시공학과
+10. 화학공학과
+11. 환경공학과
+12. 응용화학과
+13. 의생명공학과
+14. 바이오의약공학과
+15. 식품공학과
+16. 인간공학과
+17. 제품디자인공학과
+위와 같은 학과에서 실기/실적 위주 전형을 지원할 수 있습니다. 그러나 각 학과별로 모집 단위가 다르므로, 정확한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 참조하시거나 대학 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 제공되는 전공 목록도 일치합니다. "2024학년도에 신설되는"이라는 표현은 원본의 "신설된 학부"와 일관되며, 사실적으로 정확합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 일치하며, 전공에 대한 정보가 일관되게 제공됩니다. 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트를 직접적으로 다루고 있으며, 관련성이 매우 높습니다. 전공 목록을 명확히 언급하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄럽습니다. 읽기 쉽고 자연스러운 표현으로 잘 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 명확합니다. 각 요소가 잘 연결되어 있어 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 정보의 정확성에 문제가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.7635545290108127</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설되는 라이프융합학부에서는 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학 등 세 가지 전공을 제공합니다. 이 정보는 주어진 컨텍스트에서 직접 추출한 것입니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 언급하고 있지만, 농어촌학생전형에 대한 정보가 누락되어 있습니다. 또한, "동의대"라는 특정 대학 이름이 언급되었으나, 원문에서는 "동의대"라는 이름이 없고, 일반학생전형에 대한 정보만 제공되고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 농어촌학생전형에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 또한, "동의대"라는 특정 대학 이름이 원문에 없기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있지만, 특정 대학 이름이 언급되면서 약간의 주제 이탈이 발생했습니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다. 그러나 원문과의 연결이 약간 부족하여 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 농어촌학생전형에 대한 정보가 누락되어 있어 정확성이 떨어집니다. 또한, 특정 대학 이름이 원문에 없기 때문에 정확성에 의문이 생깁니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 정보의 누락과 일관성 부족으로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 대체로 일치하지만, 특정 대학 이름의 언급으로 인해 약간의 의미적 부적절성이 발생했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 이해 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.6668928696539352</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>你是特殊目的高中学生，可以申请동의大学的一般学生招生类型。根据提供的信息，在"고교유형별 지원자격"部分中：
+- 特殊目的高中（科学高、国际高、外语高）：支持申请。
+- 特殊目的高中（艺术高、体育高）：支持申请。
+- 特殊目的高中（职业高、替代型）：支持申请。
+因此，你是特殊目的高中学生，可以申请东义大学的一般学生招生类型。如果有更详细的问题或需要进一步的信息，请访问“https://ipsi.deu.ac.kr/main.do”。</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과로 언급되었으나, 생성된 응답에서는 경기지도학과와 다른 학과들이 언급되며 모집 인원도 다르게 제시되고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본에서 언급된 학과와 모집 인원과는 전혀 다른 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 정확한 답변을 제공하지 않기 때문에 관련성이 낮습니다. 원본의 핵심 정보와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와는 다르게 해석되고 있으며, 일부 내용은 적절하지 않습니다. 그러나 주제와 관련된 내용이 포함되어 있어 점수가 다소 높습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 편입니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.5881782389203702</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인해보니, 경기지도학과와 상경대학 스마트호스피탈리티학과, IT융합부품소재공과대학 미래형자동차학과, ICT공과대학 소프트웨어융합학과가 각각 모집인원 7명씩 모집하고 있습니다.
+이 중에서 가장 많이 모집하는 학과는 경기지도학과와 스마트호스피탈리티학과, 미래형자동차학과, 소프트웨어융합학과로 볼 수 있으며, 이들 학과 모두 7명씩 모집하고 있습니다. 그러나 정확히 가장 많이 모집하는 학과를 단정하기 위해서는 전체 모집인원을 더해보아야 합니다.
+현재 정보에서는 경기지도학과가 가장 많은 인원(제자리 멀리뛰기, 메디신볼 던지기, Z-런 등 실기 평가와 학생부 종합 평가를 통해 15명 모집)을 모집하고 있으며, 나머지 학과들은 정원외 모집인원이 동일한 수준입니다. 따라서 가장 많이 모집하는 학과는 경기지도학과로 볼 수 있습니다.
+추가적으로 확인하시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 방문하여 최신 정보를 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 학생부교과 농어촌학생전형에 지원할 수 없다는 사실을 잘못 전달하고 있습니다. 특수목적고등학교 출신자는 지원할 수 없다는 명확한 사실을 무시하고, 지원 가능하다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 모순됩니다. 원본 텍스트는 특수목적고등학교 출신자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원할 수 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 내용을 왜곡하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관성을 유지하고 있지만, 원본 텍스트와의 관계에서 비논리적입니다. 원본의 내용을 왜곡하여 일관성을 잃었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 지원 자격에 대한 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트의 내용을 왜곡하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 잘못된 정보를 제공하여 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.4744490923344624</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>你是特殊高中学生，根据提供的信息，你可以申请东义大学的学生部学科农村学生类型招生。具体来说：
+- 特殊目的高中（包括科学高中、国际高中和外语高中）是可以申请的。
+- 因此，你作为特殊高中学生符合申请条件。
+如果你满足其他要求，如在农·渔村地区居住等条件，你可以尝试申请东义大学的学生部学科农村学生类型招生。建议进一步确认具体的要求和提交的材料清单。如果还有疑问，可以访问“https://ipsi. deu. ac. kr/main. do”获取更多信息或直接咨询学校。</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상반된 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 모순되는 정보를 제공하고 있습니다. 원문에서는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적을 제시하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 정보가 없다고 명시하고 있으며, 생성된 응답은 잘못된 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관성이 있지만, 원문과의 관계에서 비일관적입니다. 원문과의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 완전히 상반된 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 매우 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.5889710051914623</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 표준 변환 점수 합으로 317.87점입니다.
+이 데이터는 제공된 정보에서 "소프트웨어공학부"에 대한 항목에서 "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합"의 평균 값으로부터 추출되었습니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 점을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 일관성을 유지하고 있습니다. 두 텍스트 모두 합격자 평균 성적에 대한 정보가 없음을 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다. 정보가 없다는 점을 명확히 하고, 추가적인 문의를 제안하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 흐름을 잘 따르고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 정보의 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.7104650190787068</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부에 대한 정보가 제공된 문서 내에서는 해당 정보를 찾을 수 없습니다. 다른 관련 정보나 추가적인 문의사항이 있으시다면 알려주세요. 필요하다면 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)에서 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 주요 정보를 포함하고 있으며, 대부분의 세부 사항이 정확합니다. 그러나 최초 합격자 등록 일정이 추가되어 있어 원본 텍스트와 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 기반으로 하고 있지만, 추가된 내용(최초 합격자 등록 일정 등)으로 인해 일관성이 떨어질 수 있습니다. 원본 텍스트와의 일관성이 완벽하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 합격자 발표 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 추가된 내용으로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실이 정확하지만, 원본 텍스트에 없는 정보가 포함되어 있어 완전한 정확성은 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되었지만, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보로 인해 일부 의미가 변형될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 내용으로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8048851036087066</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+1. **최초 합격자 발표 및 등록**
+   - **일정**: 2024년 2월 2일 (금) 14:00
+   - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+2. **최초 합격자 등록**
+   - **일정**: 2024년 2월 7일 (수) ~ 13일 (화)
+   - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+3. **충원 합격자 발표 및 등록**
+   - **1차 충원 합격자 발표**: 2024년 2월 14일 (수) 09:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+   - **1차 충원 합격자 등록**: 2024년 2월 14일 (수) 09:00 ~ 16:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+   - **2차 충원 합격자 발표**: 2024년 2월 15일 (목) 09:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+   - **2차 충원 합격자 등록**: 2024년 2월 15일 (목) 09:00 ~ 16:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+   - **3차 이후 충원 합격자 발표 및 등록**: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+이상의 일정을 참고하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사의 일정 날짜가 명시되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 "2024. 01. 20.(토)"라는 날짜가 언급되어 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 상충합니다. 원본 텍스트는 면접고사 일정이 명확히 제시되어 있는데, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 면접고사 일정에 대한 정확한 정보를 제공하지 않고 다른 웹사이트를 참조하라고 하여 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 관계가 명확하지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 면접고사 일정에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 이해할 수 있지만, 원본 텍스트와의 관계가 불명확하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.4025333079608645</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 면접고사의 일정 날짜가 명시되어 있지 않습니다. 정확한 일정을 확인하려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 정보를 확인해 보세요. 또한, 학생부종합전형의 면접평가 방법에서 면접시간이 1인당 10분 이내로 제시되어 있으므로 일정 날짜가 결정되면 그에 맞춰 준비하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 잘 반영하고 있습니다. 그러나 "찾을 수 없습니다"라는 표현은 다소 모호하게 느껴질 수 있으며, 원문과의 일관성을 완벽하게 유지하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 정보를 제공하고 있습니다. 다만, "다른 전형 유형이나 학과의 경우 해당 기준이 명시되어 있지만"이라는 부분은 원문에 포함되어 있지 않은 정보로, 약간의 불일치를 초래합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주제와 관련이 깊으며, 한의예과의 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "찾을 수 없습니다"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 약간의 추가 정보가 포함되어 있어 원문과의 연결이 완벽하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제시된 사실을 잘 반영하고 있으나, 추가된 정보가 원문에 명시되어 있지 않기 때문에 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하지만, "찾을 수 없습니다"라는 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 표현이 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.6285422030008408</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 최저학력기준을 찾을 수 없습니다. 다른 전형 유형이나 학과의 경우 해당 기준이 명시되어 있지만, 한의예과에 대한 정보는 없습니다.
+더 자세한 정보를 얻으려면 공식 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 방문하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "가군", "나군", "다군" 전형에 대한 구체적인 정보는 원문에 포함되어 있지 않으므로, 이 부분에서 약간의 추가 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 추가된 전형에 대한 정보가 원문과 일치하지 않거나 모호할 수 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 따라서 매우 높은 관련성을 가지고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 추가 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 동의대학교의 수능 최저학력 기준에 대한 정확한 정보를 제공하고 있지만, 추가된 전형에 대한 정보는 원문에 명시되어 있지 않으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 가지고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 주제에 적합한 정보를 제공합니다. 그러나 추가된 정보가 원문과의 일관성을 약간 해칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 긴 문장으로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5815170326589597</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024학년도 정시에서는 대부분의 전형에서 수능 최저학력 기준이 없습니다. 
+특히, "가군 수능(일반학생전형) 전 모집단위(레저스포츠학과, 태권도학과 제외)", "나군 수능(일반학생전형) 전 모집단위(한의예과, 디자인조형학과, 체육학과, 경기지도학과 제외) 한의예과(수학(미적분/기하),수학(확률과 통계))", "다군 수능(일반학생전형) 전 모집단위" 등은 모두 수능 최저학력 기준이 없음을 나타내고 있습니다.
+따라서, 정시에서 수능 최저학력 기준을 확인하려면 해당 학교의 공식 홈페이지나 입학처에 직접 문의하는 것이 가장 정확한 방법입니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 동의대학교의 공지사항을 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 및 2차 충원합격자 발표 일정은 정확하게 반영하고 있지만, 1차 및 2차 등록 일정과 개별 전화 통보에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 사실성이 떨어진다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정과 일치하지만, 추가된 등록 일정과 개별 전화 통보 정보는 원본 텍스트와 일치하지 않으므로 일관성이 부족하다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용인 충원합격자 발표 일정에 직접적으로 관련된 정보를 제공하므로 매우 관련성이 높다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 약간의 어색함이 느껴질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정과 등록 일정이 명확하게 구분되어 있어 일관된 흐름을 유지하고 있다.
+6. Accuracy Score (1-5): 3
+   - 설명: 발표 일정은 정확하지만, 등록 일정과 개별 전화 통보에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 관련성, 유창성, 일관성에서 좋은 점수를 받지만, 사실성과 정확성에서 다소 부족하여 중간 정도의 품질을 보인다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본과 일치하지 않으므로 약간의 부적절함이 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 추가된 정보로 인해 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.906058165050227</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표 일정은 다음과 같습니다:
+- **충원 합격자 1차 발표**: 2024년 2월 14일(수) 09:00
+- **충원 합격자 1차 등록**: 2024년 2월 14일(수) 09:00~16:00
+- **충원 합격자 2차 발표**: 2024년 2월 15일(목) 09:00
+- **충원 합격자 2차 등록**: 2024년 2월 15일(목) 09:00~16:00
+이후에는 개별 전화 통보를 통해 발표 및 등록이 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트에 명시된 충원합격자 발표 일정을 완전히 무시하고 있으며, 잘못된 정보를 제공하고 있습니다. 원본 텍스트에는 발표 일정이 명확히 나와 있지만, 생성된 응답은 이를 부정하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트의 내용을 반영하지 않고, 발표 일정이 없다고 주장하는 것은 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제와 관련이 없습니다. 원본 텍스트는 발표 일정에 대한 정보인데, 생성된 응답은 그 정보를 무시하고 다른 방향으로 이야기하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 부적절함으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관된 논리적 흐름이 없습니다. 원본의 정보와 관련이 없기 때문에 응답이 일관되지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 발표 일정에 대한 정확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해할 수 있으나, 내용이 원본과 관련이 없기 때문에 전체적으로 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.3611142302435103</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 추가합격자 발표일은 명시되어 있지 않습니다. 추가합격자 발표 일정이 필요하다면, 해당 대학의 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 방문하여 확인하시거나, 입학처에 직접 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 수시모집 등록자의 결원에 대한 정보는 언급하지 않고, 특정 단과대학의 추가 모집에 대한 내용이 없다고 말하고 있습니다. 그러나 원문에서는 추가 모집에 대한 구체적인 정보가 제공되고 있으므로, 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일치하지 않는 부분이 있습니다. 원문은 추가 모집에 대한 구체적인 내용을 포함하고 있지만, 생성된 응답은 이를 부정하고 있습니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 추가 모집에 대한 정보를 요청하는 질문에 대해 관련된 정보를 제공하고 있습니다. 그러나 원문에서 제공된 구체적인 내용과는 다소 거리가 있어, 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬운 문장으로 구성되어 있습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원문과의 연결성이 부족하여 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원문에서 제공된 정보와 일치하지 않는 부분이 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점을 가지고 있지만, 원문과의 일치성 부족으로 인해 전반적인 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하지만, 원문과의 관련성이 떨어져 다소 부적절하게 느껴질 수 있습니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 문장으로 구성되어 있어 이해 가능성 점수는 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.4859396822123836</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 특정 단과대학의 추가 모집에 대한 내용이 직접적으로 언급되어 있지 않습니다. 추가 모집에 대한 자세한 정보를 얻으려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 공고를 확인해보시는 것이 좋습니다. 해당 사이트에서 가장 정확하고 최신의 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 평생학습자전형에 대한 일부 정보를 포함하고 있지만, 원본 텍스트의 세부 사항을 완전히 반영하지 않고 있습니다. 예를 들어, 모집단위 및 모집인원, 지원자격, 제출서류의 구체적인 내용이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 일부 일치하지만, 전형의 목적과 평가 방식에 대한 설명이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트의 정보와는 다소 다른 방향으로 설명되고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있으나, 원본 텍스트의 주요 내용과는 약간의 차이가 있습니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 세부 사항이 누락되어 있어 정확성에서 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 평균 이상의 품질을 보이지만, 원본 텍스트의 세부 사항을 충분히 반영하지 못해 종합적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 평생학습자전형에 대한 설명이 잘 이루어져 있습니다. 그러나 원본 텍스트의 특정 세부 사항이 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달됩니다. 다만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.5608369918977421</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 성인학습자와 재직자를 대상으로 하는 입학전형입니다. 이 전형에서는 서류평가와 면접평가가 병행되며, 각 평가 영역의 비율은 다음과 같습니다:
+1. **서류평가**:
+   - **서류**: 70%
+   - **면접**: 30%
+2. **제출서류**:
+   - 고교 졸업(예정)자: 고교 학교생활기록부
+   - 검정고시 출신자: 검정고시 합격증서 사본, 검정고시 성적증명서, 학교생활기록부 대체 서류 (선택 가능)
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업(예정)증명서, 공증받은 외국고교 성적증명서, 학교생활기록부 대체 서류 (선택 가능)
+3. **면접평가**:
+   - 개별면접으로 진행되며, 1인당 10분 이내입니다.
+   - 평가 영역은 학업역량과 전공적합성이며, 각 영역의 배점은 다음과 같습니다:
+     - **학업역량**: 280점
+     - **전공적합성**: 280점
+4. **부정적 사례**:
+   - 학교생활기록부 작성 과정에서 학생이 직접 작성한 경우, 교사의 분석과 검토 없이 단순히 이기하여 기재한 경우 등이 있습니다.
+5. **동점자 처리기준**:
+   - 면접고사 성적 상위자
+   - 서류평가 공동체역량 영역 성적 상위자
+   - 서류평가 전공적합성 영역 성적 상위자 순으로 동점자를 처리합니다.
+이러한 절차와 기준을 통해 평생학습자전형은 성인학습자와 재직자의 학업역량과 전공적합성을 종합적으로 평가하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 아닌, 산업체 적용 범위와 재직기간 산정에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 내부적으로는 구조가 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적으로는 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.6602114210128275</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가 또는 지방자치단체 및 공공단체 (소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+2. 재직기간 산정:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙 서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간을 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+이러한 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보를 제공하지 않고, 다른 주제에 대한 설명으로 대체하고 있습니다. 이는 원본 텍스트의 사실과 일치하지 않으며, 실기고사에 대한 언급이 전혀 없습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 실기고사에 대한 정보가 전혀 포함되어 있지 않습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사에 대한 질문에 대한 답변이 아닙니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 주제와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 전혀 반영하지 않으며, 실기고사에 대한 정보가 누락되어 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 주제와의 관련성이 없기 때문에 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.4033044994432212</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 실기고사에 대한 언급이 없습니다. "나군 학생부교과(농어촌학생전형)"와 관련된 다양한 지원 자격, 제출 서류, 면접 평가 등에 대해 설명하였습니다. 만약 특정 단과대학이나 계열의 실기고사 장소를 알고 싶으시다면, "계열"과 "모집단위" 정보를 기반으로 찾아보시거나, 제공된 링크를 통해 자세한 내용을 확인해 보세요. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 체육학과의 실기고사 종목과 배점 비율에 대한 내용을 담고 있습니다. 이는 원본 텍스트와 관련이 없으며, 사실적으로도 부정확합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사 대기실 및 입실시간에 대한 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 주제와 관련이 없기 때문에 전체적인 평가에는 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 주제와의 관련성이 없기 때문에 전체적인 이해도에는 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.3562231065026887</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 주로 멀리뛰기, 메디신볼 던지기, Z-런 등 다양한 종목으로 구성되어 있습니다. 각 종목별 배점 비율은 다음과 같습니다:
+1. 멀리뛰기: 240점 (24%)
+2. 메디신볼 던지기: 243점 (23%)
+3. Z-런: 230점 (23%)
+실제로는 학교에서 실시되거나 특정 시설에서 진행될 수 있으므로, 정확한 장소는 해당 대학의 입학처나 홈페이지를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표가 전화로 개별 연락을 하지 않는다는 사실을 완전히 반대하는 내용을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본에서는 전화 통보가 이루어지지 않는다고 명시되어 있는데, 생성된 응답에서는 전화 통보를 받을 수 있다고 언급하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 전체적으로는 적절한 관련성을 가지지 못합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 내용을 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6587574976003236</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수시 충원 합격자 발표 후에는 개별 전화 통보를 받을 수 있습니다. 하지만 모든 합격자는 먼저 홈페이지에서 개인적으로 조회해야 합니다. 이후에 입학관리팀으로부터 추가적인 안내를 받으실 수 있습니다.
+발표 일정은 다음과 같습니다:
+- 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+합격자 발표 및 등록금 납부가 완료된 후에도 추가 합격자가 발생할 수 있으므로, 홈페이지에서 개인적으로 확인하시고, 필요하다면 입학관리팀으로부터 전화 통보를 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 수시모집 결과에 대한 정보가 제공되지 않았다는 사실을 잘 반영하고 있습니다. 그러나 "수시모집을 진행했는지, 아니면 신설되었는지"에 대한 언급은 원문에 명시된 내용이 아니므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 경찰행정학과의 수시모집 여부에 대한 질문은 원문에서 다루지 않은 내용입니다. 따라서 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 경찰행정학과의 수시모집 결과에 대한 정보를 찾기 위한 방법을 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원문과의 연결이 약간 부족한 부분이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 경찰행정학과의 수시모집 여부에 대한 추가적인 질문은 원문에 포함되어 있지 않아 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 높지만, 원문에서 다루지 않은 내용을 포함하고 있어 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.8079666934905217</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2023학년도에 경찰행정학과가 수시모집을 진행했는지, 아니면 신설되었는지 명확히 알기 위해서는 추가 정보가 필요합니다. 제공된 정보에는 경찰행정학과 관련 내용이 없습니다.
+만약 경찰행정학과가 2023년도에 수시모집을 했다면, 그 결과를 찾기 위해서는 대학의 공식 웹사이트나 입학처와 직접 문의해야 합니다. 제공된 정보에는 학과 분리, 합병, 명칭 변경 등이 포함되어 있지만, 경찰행정학과 관련된 수시모집 결과는 없습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 "정시에 수능을 응시하지 않아도 지원이 가능합니다."라고 주장하고 있지만, 이는 원문과 상반되는 내용입니다. 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문이 수능 응시가 필수라고 명시한 반면, 생성된 응답은 수능을 응시하지 않아도 지원이 가능하다고 주장하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있습니다. 수능 응시와 관련된 다양한 전형에 대한 설명은 포함되어 있으나, 원문에서의 핵심 질문에 대한 답변이 잘못되어 있어 관련성은 있지만 정확하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 설명을 포함하고 있지만, 원문과의 연결이 약해 논리적인 흐름이 부족합니다. 원문에서의 질문에 대한 직접적인 답변이 없기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서의 사실과 완전히 반대되는 정보를 제공하고 있습니다. 수능 응시가 필수라는 원문의 사실을 무시하고 잘못된 정보를 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 원문과의 관계가 부정확하고 일관성이 없기 때문에 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않는 내용을 포함하고 있습니다. 원문에서의 질문에 대한 적절한 답변이 아니므로 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 높지만, 내용의 정확성 문제로 인해 점수가 낮아집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.5635143215158831</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시에 수능을 응시하지 않아도 지원이 가능합니다. 그러나 '다군 수능(일반학생전형)'은 수능 점수를 기준으로 학생들을 선발하므로, 수능 응시는 필수적입니다.
+특히, '나군 학생부종합(조기취업형계약학과전형)'이나 '나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)' 등은 수능 점수 외에도 다양한 요소를 고려하여 지원자를 선발하므로, 수능 응시는 필수입니다.
+만약 수능을 응시하지 않고 다른 방법으로 지원하고 싶다면, '나군 학생부교과(농어촌학생전형)'와 같은 전형에 지원할 수 있습니다. 이 경우에는 특정한 교육과정이나 거주지 등을 충족해야 합니다.
+더 자세한 정보는 https://ipsi. deu. ac. kr/main. do를 방문하여 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 사실을 언급하고 있지만, 나군의 성인학습자 전형에 대한 정보는 원본 텍스트에서 제공된 정보와 일치하지 않으며, 특정 조건이 필요하다는 점에서 다소 모호한 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 나군의 성인학습자 전형에 대한 언급이 추가되어 있어 일관성이 떨어지는 부분이 있습니다. 원본 텍스트의 핵심 정보와는 다소 다른 방향으로 나아가고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 고등학교 졸업 후 정시 지원 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 나군의 성인학습자 전형에 대한 정보가 추가되어 있어 약간의 주제 이탈이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 특히 성인학습자 전형에 대한 언급이 원본 텍스트와의 연결이 약합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 나군의 성인학습자 전형에 대한 정보는 원본 텍스트와의 일치성이 떨어져 정확성이 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으나, 일관성과 정확성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 나군의 성인학습자 전형에 대한 추가 정보가 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.5316918309383706</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2024년의 경우, 나군에서는 성인학습자 전형을 통해 평생학습자 또는 재직자를 대상으로 하고 있습니다. 이전에 말씀하신 것처럼, 정시로 지원하려면 특정 조건이 필요합니다. 그러나 정시로 지원할 수 있는지 확인하기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나 학교 관계자에게 문의하시는 것이 좋습니다.
+특히, 고등학교 졸업 후 10년이 지났다면, 나군에서 제공하는 성인학습자 전형을 통해 지원할 수 있는지 확인해보시는 것이 좋겠습니다. 성인학습자 전형에서는 재직 경력과 평생 학습 경험 등을 고려하기 때문에, 이전의 교육 경력을 활용하여 지원 가능성이 있습니다.
+추가로 필요한 자세한 정보나 조건에 대해 궁금하시다면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나 학교 관계자에게 문의해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 비고 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있어 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 의미 전달이 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.8157298017063238</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집의 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 날짜: 2024. 01. 03.(수) ~ 2024. 01. 06.(토) 마감일 18시까지
+   - 비고: 원서 접수 사이트 (http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com)
+3. **서류 제출**:
+   - 날짜: 2024. 01. 03.(수) ~ 2024. 01. 12.(금) 마감일 17시까지 도착
+   - 비고: 서류 제출 대상 (Ⅳ. 전형별 세부 안내 참조), 제출 방법 : 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편 발송
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표 및 등록
+     - 날짜: 2024. 02. 07.(수) ~ 02. 13.(화)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행 (등록금 고지서에 기재)
+7. **충원 합격자 발표 및 등록**:
+   - 1차 충원 합격자 발표
+     - 날짜: 2024. 02. 14.(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행 (등록금 고지서에 기재)
+   - 1차 충원 합격자 등록
+     - 날짜: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행 (등록금 고지서에 기재)
+   - 2차 충원 합격자 발표 및 등록
+     - 날짜: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행 (등록금 고지서에 기재)
+8. **충원 합격자 3차 이후 발표 및 등록**:
+   - 날짜: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+   - 비고: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행 (등록금 고지서에 기재)
+이상과 같이 동의대학교 정시 모집 일정을 설명하였습니다. 필요하시면 추가 정보를 제공해 드릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 세부 사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.8664820471598107</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 날짜: 2024. 01. 03.(수) ~ 2024. 01. 06.(토) 마감일 18시까지
+   - 비고: http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 날짜: 2024. 01. 03.(수) ~ 2024. 01. 12.(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표 및 등록: 
+     - 날짜: 2024. 02. 07.(수) ~ 02. 13.(화)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부, 등록장소 학교 지정은행
+   - 충원 합격자 발표 및 등록:
+     - 1차: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 2차: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 3차 이후: 개별 전화 통보 시 안내
+이 일정은 동의대학교 정시 모집에 대한 주요 내용을 포함하고 있습니다. 자세한 정보는 입학안내 홈페이지를 참조하시기 바랍니다. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 미응시자가 지원 가능한 전형에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에 따르면 수능 미응시자는 지원이 불가능하다고 명시되어 있으나, 생성된 응답에서는 수능 미응시자가 지원 가능한 전형을 나열하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트는 수능 미응시자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 수능 미응시자가 지원 가능한 전형을 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 동의대학교 정시 모집 전형에 대한 정보를 포함하고 있습니다. 따라서 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 각 전형에 대한 설명이 잘 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 수능 미응시자가 지원할 수 없다는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 일관성에서 큰 문제를 가지고 있지만, 관련성과 유창성에서는 긍정적인 점수를 받을 수 있습니다. 그러나 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.706070676896848</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. **&lt;나&gt;군 실기/실적(경기실적우수자전형)**
+   - 이 전형에서는 수능 점수가 요구되지 않습니다.
+   - 주로 경기에서 우수한 성과를 거둔 학생들을 대상으로 합니다.
+2. **&lt;나&gt;군 학생부교과(농어촌학생전형), &lt;나&gt;군 학생부종합(성인학습자(정원내)전형), &lt;나&gt;군 학생부종합(성인학습자(정원외)전형), &lt;나&gt;군 학생부종합(재직자전형), &lt;나&gt;군 학생부종합(조기취업형계약학과전형)**
+   - 이 전형들은 주로 학생부 성적을 중점적으로 평가합니다.
+   - 수능 점수는 요구되지 않으며, 학생부 교과성적이 중요한 요소입니다.
+따라서 수능 미응시자도 지원이 가능한 전형은 위와 같습니다. 각 전형의 자세한 내용은 동의대학교 입학처 웹사이트를 참조하시기 바랍니다. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전년도 전자공학과의 충원 합격이 36명까지 이루어졌다는 사실을 무시하고, 2023년도에 3차까지 이루어졌다고 잘못된 정보를 제공합니다. 또한, 2024년의 정보가 포함되어 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 포함하고 있습니다. 원본 텍스트는 충원 합격 차수에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 3차까지 이루어졌다고 주장합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 전자공학과의 충원 합격에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용인 충원 합격 차수에 대한 정보가 없다는 점을 간과하고 있습니다. 따라서 관련성은 있지만, 원본의 주요 포인트를 놓치고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 중국어 문장이 포함되어 있어 한국어 독자에게는 다소 혼란스러울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 특히, 2024년의 정보가 갑자기 등장하여 논리적 일관성이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 전년도 전자공학과의 충원 합격이 36명이라는 사실을 무시하고, 잘못된 차수를 제시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 불일치가 두드러집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 해석하고 있습니다. 충원 합격 차수에 대한 정보가 없다는 점을 간과하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 중국어 문장이 포함되어 있어 한국어 사용자에게는 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.5249654066870216</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2023년도에 전자공학과의 충원 합격은 3차까지 이루어졌습니다. 
+具体的来说，根据提供的信息，在2024年招生简章中的“合격者 발표 및 등록금 납부 충원 合格者公布及注册金补充”部分中提到：
+- 第一次补充合格者公布及注册：2024. 02. 14.(水) 09:00
+- 第二次补充合格者公布及注册：2024. 02. 15.(木) 09:00
+这表明在2023年的招生中，电子工程专业的补录是在三次内完成的。具体来说，在第一次和第二次补录之后仍然有剩余名额需要填补，因此进行了第三次补录。
+따라서, 2023년도에 전자공학과의 충원 합격은 3차까지 이루어졌습니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 전화번호가 제공되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 전화번호를 명시하고 있지만, 생성된 응답은 이를 부정하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전화번호를 제공하지 않는다는 점에서 다소 관련성이 떨어집니다. 그러나 웹사이트를 통해 정보를 찾으라는 제안은 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, "deu. ac. kr" 부분의 점이 불필요하게 삽입되어 있어 약간의 매끄러움이 떨어집니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 웹사이트를 통해 정보를 찾으라는 제안이 자연스럽게 이어집니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있습니다. 전화번호가 제공되었음에도 불구하고 이를 부정하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성과 정확성에서 큰 결함이 있으며, 일관성 또한 부족합니다. 그러나 유창성과 일관성은 어느 정도 유지되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 전달하지 못하고 있습니다. 전화번호가 제공되었음에도 불구하고 이를 부정하는 내용은 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.6588285604974252</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. 필요하신 전화번호를 확인하려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트로 접속해 보시기 바랍니다. 해당 페이지에서 연락처 정보를 찾을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에 대한 처리 방법을 제시하고 있지만, 원본 텍스트에서 명시된 "해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다"라는 중요한 사실을 누락하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 전화 연락이 두절되면 등록 포기자로 처리된다고 명시하고 있지만, 생성된 응답은 자동으로 처리되지 않는다고 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본 텍스트의 핵심 내용을 완전히 반영하지 않기 때문에 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 가지 방법을 나열하고 있지만, 전체적인 흐름이 다소 분산되어 있어 일관된 논리적 구조가 부족합니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성 점수가 낮습니다. 원본 텍스트의 중요한 사실을 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 차원에서의 품질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 핵심 내용을 반영하지 않아 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 내용이 원본 텍스트와 상충하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.6053902003688325</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시 전화 통화가 되지 않는 경우, 해당 합격자는 자동으로 처리되지 않습니다. 다시 입학관리팀에서 확인해야 하며, 일반적으로 다음 방법이 적용될 수 있습니다:
+1. **재통보**: 입학관리팀은 재통보를 진행하며, 추가로 전화를 시도하거나 다른 연락 방식을 사용할 수 있습니다.
+2. **개인 메일 발송**: 합격자에게 개인 메일을 발송하여 상황을 안내하고 다시 연락받을 수 있는 방법을 요청합니다.
+3. **입학관리팀 방문**: 합격자는 입학관리팀을 직접 방문하여 상황을 확인하고 필요한 조치를 취할 수 있습니다.
+따라서 전화 통화가 되지 않으면, 합격자에게 다시 연락받을 수 있는 방법을 안내하거나 재통보하는 등의 조치를 취하게 됩니다. 자세한 절차는 입학관리팀에서 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 제출해야 할 서류를 잘 요약하고 있으나, 일부 세부사항이 누락되거나 다르게 표현되어 있어 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 응답은 원본 텍스트의 내용을 기반으로 하고 있지만, 일부 항목이 누락되거나 다르게 표현되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 필요한 서류에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽지만 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 대부분의 정보를 정확하게 전달하고 있으나, 일부 세부사항이 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 여러 품질 차원에서 잘 수행되고 있으나, 일부 세부사항의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현이 다소 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 세부사항이 누락되어 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.7112210560781509</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌 학생전형으로 지원 시 제출해야 할 서류는 유형에 따라 다릅니다. 아래와 같이 나뉩니다.
+1. **6년 과정**
+   - 가족관계증명서 (1부)
+   - 주민등록초본 (지원자 본인, 부모 각 1부 총 3부)
+   - 중학교 학교생활기록부 (1부)
+   - 고등학교 학교생활기록부 (1부)
+   - 고교 졸업증명서
+   - 지원자 본인, 부모의 초본 각 1부(총 3부)
+2. **12년 과정**
+   - 주민등록초본 (1부)
+   - 초등학교 학교생활기록부 (1부)
+   - 중학교 학교생활기록부 (1부)
+   - 고등학교 학교생활기록부 (1부)
+   - 고교 졸업증명서
+   - 지원자 본인의 초본 1부
+이 외에도 추가 서류가 필요할 수 있으므로, 정확한 요구 사항은 해당 대학의 공식 웹사이트를 확인하시거나 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 제출해야 할 서류 목록을 정확하게 나열하고 있으며, 원본 텍스트의 주요 내용을 잘 반영하고 있습니다. 그러나 "주소변동사항이 포함된 서류를 발급받아 제출해야 합니다"라는 부분이 누락되어 있어 완전한 정확성은 다소 떨어집니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 서류 목록을 제시하고 있으며, 추가적인 설명도 포함되어 있습니다. 그러나 원본 텍스트의 모든 세부 사항을 포함하지 않아 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록과 그 목적을 명확하게 설명하고 있습니다. 그러나 약간의 추가적인 연결이 있으면 더 좋을 것 같습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 일부 세부 사항이 누락되어 있어 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부 사항의 누락이 아쉬운 점입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 다만, 추가적인 세부 사항이 포함되면 더 좋을 것입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 약간의 추가적인 설명이 있으면 더 명확할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8472574306178607</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 제출해야하는 서류는 다음과 같습니다:
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+이러한 서류들은 지원자의 초·중·고등학교 전 교육과정을 농어촌 지역 소재 학교에서 이수하고 거주하였음을 증명하기 위함입니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 언급하고 있으며, 이는 원문과 일치합니다. 그러나 "2023년 나군 정시 모집에서 저소득 기회균등 전형은 선발하지 않습니다."라는 문장은 원문에서 명시된 내용이 아니므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부 일치하지만, "2023년 나군 정시 모집"이라는 특정 연도를 언급함으로써 원문에서 제공된 일반적인 정보와는 다소 일치하지 않는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있으며, 기회균등 전형에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "제공된 자료 내에 명확히 언급되어 있지 않으므로" 부분이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원문과의 연결이 약간 부족할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 특정 연도에 대한 언급이 원문에 없기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 전반적으로 원문과 잘 연결되어 있습니다. 그러나 일부 세부 사항에서 약간의 부정확성이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 기회균등 전형에 대한 적절한 정보를 제공합니다. 다만, 특정 연도 언급이 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달되고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.6656470278320796</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>2023년 나군 정시 모집에서 저소득 기회균등 전형은 선발하지 않습니다. 관련 정보는 제공된 자료 내에 명확히 언급되어 있지 않으므로, 더 정확한 정보를 얻기 위해서는 "https://ipsi. deu.ac.kr/main.do" 웹사이트를 방문하여 확인하시거나 대학 입시 관련 문의를 직접 하셔야 합니다.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급에 대한 절사 기준을 잘못 설명하고 있습니다. 원본 텍스트에서는 절사 여부에 대한 정보가 없다고 명시하고 있으며, 따라서 2.5등급이 3등급으로 처리된다는 주장은 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본에서는 절사 여부에 대한 정보가 없다고 하였으나, 생성된 응답은 2.5등급이 3등급으로 처리된다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있으며, 수능 최저등급에 대한 정보를 제공하고 있습니다. 따라서 관련성은 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으나, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 다르며, 원본 텍스트의 내용을 잘못 해석하고 있습니다. 2.5등급이 3등급으로 처리된다는 주장은 정확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 문제가 있으며, 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.624962290042671</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급은 절사하여 3등급으로 처리됩니다. 수능 최저등급에서 사탐 2 과목 평균산출을 할 때, 절사 기준에 따라 2.5등급은 3등급으로 반올림이 이루어집니다.
+따라서 2.5 등급의 경우는 3등급으로 처리됩니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 발표와 2차 발표에 대한 정보를 잘못 전달하고 있습니다. 2차 발표는 2024년 2월 15일(목) 오전 9시에 이루어져야 하며, 2차 발표에 대한 등록 마감 시간도 잘못 기재되어 있습니다. 따라서 일부 사실이 정확하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 3차 발표에 대한 정보는 일치하지만, 1차와 2차 발표에 대한 정보가 원본 텍스트와 일치하지 않아서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 정시 충원 합격자 발표에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽지만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표에 대한 정보를 순차적으로 제시하고 있습니다. 그러나 일부 정보의 부정확성으로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 2차 발표에 대한 정보가 잘못되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 정확성에서의 문제로 인해 전반적인 품질이 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보의 부정확성으로 인해 완전한 적합성을 보이지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었지만, 일부 정보의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.7585182876725662</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 3차로 이루어집니다. 
+1. 첫 번째 충원 합격자는 2024년 2월 14일(수) 오전 9시에 발표됩니다.
+2. 두 번째 충원 합격자는 같은 날 오후 4시까지 등록이 가능하며, 이 역시 2024년 2월 14일(수)에 이루어집니다.
+3. 세 번째 충원 합격자 발표는 2024년 2월 15일(목) 오전 9시부터 진행되며, 이 또한 같은 날 오후 4시까지 등록이 가능합니다.
+따라서 정시 충원 합격자 발표는 총 3차로 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 모집 인원과 지원 인원, 수능 성적 평균 및 표준 편차에 대한 정보를 제공하고 있지만, 이 정보는 원본 텍스트에 포함되어 있지 않으며, 수능 성적 평균이 5.27이라는 점은 명백한 오류입니다. 원본 텍스트에 따르면 수능 4개 영역 등급이 4.6점이면 평균을 약간 상회하는 수준이라고 언급하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 수능 4개 영역 등급이 4.6점일 경우의 가능성을 설명하고 있지만, 생성된 응답은 4.6점이 평균보다 낮다고 주장하며, 정시 전형에서 추가 합격이 어려울 것이라고 언급합니다. 이는 원본 텍스트의 내용과 상충합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 제공된 정보가 원본 텍스트의 핵심 내용과는 다소 거리가 있습니다. 경쟁률과 면접 준비에 대한 언급은 관련성이 있지만, 원본 텍스트의 주요 포인트를 충분히 다루지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다. 정보가 서로 연결되어 있지만, 주제의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 수능 성적 평균과 관련된 정보에서 명백한 오류가 있으며, 원본 텍스트의 사실과 일치하지 않습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 생성된 응답은 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히 수능 성적에 대한 해석이 잘못되었습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.5955998474879004</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>2024학년도 e비즈니스학과의 모집인원은 10명이고, 지원인원은 146명으로 경쟁률이 매우 높습니다(4.87). 수능 성적 평균은 5.27이며, 표준 편차는 0.30입니다.
+수능 성적이 4.6이라면 이는 평균보다 약간 낮은 수준입니다. 그러나 정시 전형의 경우 경쟁률이 매우 높기 때문에 4.6이라는 점수로 추가 합격하기는 어려울 것으로 예상됩니다.
+하지만, 최종 합격 여부는 면접 성적과 서류 평가 등 다른 요소들에 따라 결정되므로, 수능 성적이 4.6이라면 면접 준비와 서류 준비를 철저히 하는 것이 중요합니다.
+더 자세한 정보나 추가 질문이 있으시다면 https://ipsi. deu. ac. kr/main. do 를 참조하시거나 관계된 부서에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e비즈니스학과의 지원자들의 수능 4개 영역 등급 평균을 5.21로 제시하고 있지만, 원본 텍스트에서는 평균이 4.53이라고 명시되어 있습니다. 이로 인해 사실관계에 큰 오류가 발생하였고, 따라서 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트는 정시 등급이 5.3일 경우 합격이 어려울 수 있다고 언급하고 있으나, 생성된 응답은 합격 가능성이 높다고 주장합니다. 이로 인해 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 일부 관련성이 떨어집니다. 그러나 지원 인원 수, 경쟁률, 충원 합격자 수와 같은 추가적인 요소를 고려하는 점은 긍정적입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관된 주제를 유지하지 못하고 있습니다. 따라서 중간 정도의 점수를 부여합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 특히 평균 등급에 대한 정보가 잘못되어 있습니다. 이로 인해 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실관계와 일관성에서 큰 문제를 보이고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 중간 정도의 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6775191368997722</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 e비즈니스학과의 지원자들의 수능 4개 영역 등급 평균은 5.21입니다 (표준 편차는 0.33). 이 정보를 바탕으로, 정시 등급이 5.3인 경우 동의대학교 e비즈니스학과에 최초 합격 가능성은 높아 보입니다.
+하지만 최종 결정을 내리기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. 지원 인원 수: 이 정보가 필요합니다.
+2. 경쟁률: 이 역시 중요합니다.
+3. 충원 합격자 수: 이 또한 중요한 요인입니다.
+따라서, 정확한 최초 합격 가능성 판단을 위해서는 동의대학교 e비즈니스학과 2024학년도 모집에 대한 지원 인원 수와 경쟁률, 충원 합격자 수 등의 정보가 필요합니다. 이 정보를 제공해 주시면 더 정확한 답변을 드릴 수 있습니다.
+더 궁금하신 점이 있으시다면 https://ipsi. deu. ac. kr/main. do 에 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 예비 38번의 합격 가능성에 대한 명확한 정보를 제공하지 않고, 일반적인 전형 절차와 기준에 대한 설명을 추가했습니다. 그러나 원본 텍스트의 핵심 사실인 "예비 38번이라면 예비 합격할 가능성이 낮다"는 내용을 명확히 반영하지 못했습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 예비 38번의 합격 가능성에 대한 명확한 판단을 회피하고 일반적인 기준을 제시함으로써 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 예비 합격 여부에 대한 질문에 대해 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 사실을 완전히 반영하지 않으며, 예비 38번의 합격 가능성에 대한 구체적인 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 여러 차원에서 중간 정도의 품질을 보이며, 특히 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으나, 질문에 대한 직접적인 답변이 부족하여 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.507598268028656</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 특정 학생의 예비합격 여부를 정확히 판단하기 어렵습니다. 이정도라는 표현이 구체적인 성적이나 경쟁률, 지원 인원 등에 대한 정보를 의미하는 것인지 명확하지 않습니다.
+다만, 일반적으로 한국대학교에서 실시하는 전형 절차와 기준을 참고해보겠습니다:
+1. **수능 성적**: 수능 성적이 높은 학생들은 경쟁률이 낮고 예비합격 가능성이 높습니다.
+2. **학생부 교과성적**: 한국사, 사회 등 관련 과목의 성적이 좋을 경우 유리합니다.
+3. **출결상황**: 결석일수가 적을수록 학생부 점수가 높아집니다.
+특히, e비즈니스학전공은 경영이나 IT 분야와 연관성이 있으므로 수학과 영어의 성적도 중요합니다.
+만약 구체적인 정보가 있다면 (예: 국어 100점, 수학 95점 등), 해당 정보를 바탕으로 더 정확한 판단을 할 수 있을 것입니다. 
+더 자세한 정보나 질문이 있으시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 공식 홈페이지에서 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 모집 전형과 성적 반영 방법에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 정시 성적 3.44에 대한 합격 가능성에 대한 명확한 언급이 부족합니다. 또한, 실기 성적에 대한 언급이 있지만, 원본 텍스트의 핵심 정보와는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 정시 성적 3.44에 대한 합격 가능성에 대한 해석이 다릅니다. 원본 텍스트는 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 실기 성적에 따라 가능성이 있다고 언급하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 전형 및 성적 반영 방법에 대한 정보를 제공하여 관련성이 높지만, 원본 텍스트의 핵심 질문인 정시 성적 3.44에 대한 합격 가능성에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원본 텍스트의 핵심 정보와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 전형 및 성적 반영 방법에 대한 정보를 제공하지만, 원본 텍스트의 핵심 사실인 정시 성적 3.44에 대한 합격 가능성에 대한 정확한 해석이 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 질문에 대한 명확한 답변이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 간호학과의 전형 및 성적 반영 방법에 대한 정보를 잘 전달하고 있습니다. 그러나 원본 텍스트의 맥락과 완전히 일치하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.6439095977886868</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>2023년도 동의대학교 간호학과의 경우, 학생부교과와 실기/실적 위주전형으로 모집이 이루어졌습니다. 학생부교과성적 반영방법은 전 모집단위에서 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 8과목을 반영하였습니다.
+2024년도에는 간호학과가 교직 분야로 모집이 변경되었고, 학생부교과성적 반영방법은 전 모집단위에서 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 반영하였습니다.
+정시 성적이 3.44라면, 이는 학생부교과성적에서 좋은 점수를 받기 어렵습니다. 그러나 실기/실적 위주전형에서는 실기 성적에 따라 합격 가능성이 있습니다. 간호학과의 경우 제자리 멀리뛰기와 Z-런이 반영되므로, 이들 실기 성적이 높다면 합격 가능성은 있을 수 있습니다.
+만약 2024년도에 지원한다면, 학생부교과성적에서 더 좋은 점수를 받는 것이 중요하며, 실기 성적도 고려해야 합니다. 그러나 정시 성적이 낮을 경우 합격 가능성은 낮아질 수 있습니다.
+더 자세한 정보나 추가적인 조언이 필요하시다면, https://ipsi. deu. ac. kr/main. do를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 정시 등급에 대한 정보를 포함하고 있으며, 이 정보는 원본 텍스트와 일치합니다. 그러나 "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합"의 평균이 353.48이라는 정보는 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 추가적인 정보(국어 + 수학 + 탐구 점수)에 대한 언급이 있어 일관성이 떨어질 수 있습니다. 원본 텍스트는 정시 등급에 대한 합격 가능성을 높게 평가하고 있지만, 생성된 응답은 불확실성을 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다. 모든 주요 포인트를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 추가된 정보가 원본 텍스트와의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 원본 텍스트에 없는 추가적인 점수 정보가 포함되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받고 있습니다. 그러나 일부 요소에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의도를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 그러나 일부 문장은 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6552771170211062</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2.52라는 점수를 가지고 동의대학교 간호학과에 최종 합격할 수 있는지는 확실하지 않습니다. 간호학과의 경우 평균적인 입학 성적을 보면 다음과 같습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 353.48
+- **영어 등급**: 평균 2.34
+당신의 성적은 2.52로, 이는 영어 등급에 해당하는 부분입니다. 간호학과의 경우 평균적인 영어 등급이 2.34이므로, 당신의 점수는 약간 높습니다.
+그러나 합격 가능성은 단지 영어 성적만으로 판단할 수 없습니다. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**이 평균 353.48에 해당하므로, 이 부분에서 더 높은 점수가 필요합니다.
+따라서, 다음과 같은 요소들을 고려해야 합니다:
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**이 얼마나 높아야 하는지 확인하세요.
+2. **경쟁률**을 고려하여, 현재 지원자의 수와 모집 인원 간의 비율을 파악합니다.
+현재 정보만으로는 정확한 판단이 어렵습니다. 동의대학교의 공식 웹사이트를 방문하여 더 자세한 정보를 확인하거나, 입학처에 문의하는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 를 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 제공하고 있으며, 3.7의 점수로 합격 가능성이 낮다는 점을 언급하고 있습니다. 그러나, "학생부 교과성적 반영방법에서 전 모집단위에 대해 12과목을 반영한다"는 정보는 원본 텍스트에 명시되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일관성을 유지하고 있습니다. 그러나 추가된 정보가 원본 텍스트와 완전히 일치하지 않기 때문에 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 간호학과의 합격 가능성에 대한 정보를 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분 정확하지만, 원본 텍스트에 없는 추가 정보가 포함되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 차원에서 잘 수행되고 있지만, 일부 정보의 부정확성으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.7050198916015274</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 평균 점수로 간호학과에 정시로 합격하기는 어렵다고 볼 수 있습니다. 간호학과는 보통 높은 성적을 요구하며, 특히 최근에는 경쟁률이 매우 높아졌습니다.
+2024년도의 경우, 학생부 교과성적 반영방법에서 전 모집단위에 대해 12과목을 반영한다고 합니다. 이는 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 반영합니다.
+간호학과의 경우, 특히 고교 졸업 예정자에게는 높은 성적 요구가 있습니다. 따라서 3.7의 평균 점수로는 합격하기 어려울 것으로 보입니다.
+만약 간호학과에 진학하고 싶다면, 다음과 같은 방법을 고려해 볼 수 있습니다:
+1. **성적 향상**: 과목별 성적을 높이는 것이 중요합니다.
+2. **추천서 및 자기소개서 작성**: 강점을 부각시키는 추천서와 자기소개서를 준비합니다.
+3. **면접 연습**: 면접에서 좋은 인상을 줄 수 있도록 연습합니다.
+만약 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 지원자의 점수와 평균 점수, 표준 편차에 대한 정보를 제공하지만, 원본 텍스트의 핵심 사실인 "정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적"이라는 부분과 상충합니다. 원본 텍스트는 2.58이 평균보다 높은 성적이라고 명시하고 있지만, 생성된 응답은 이를 반박하는 내용을 담고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 2.58이 평균보다 높은 성적이라고 주장하는 반면, 생성된 응답은 지원자의 점수가 평균보다 낮다고 언급하고 있습니다. 이로 인해 두 텍스트 간의 정보가 상충하게 됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 정시 모집에 대한 정보를 제공하고 있으며, 지원자의 점수와 관련된 내용을 다루고 있습니다. 그러나 원본 텍스트의 핵심 포인트인 합격 가능성에 대한 직접적인 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 일관성이 부족하여 논리적 흐름이 다소 어색합니다. 특히, 지원자의 점수와 평균 점수 간의 비교가 명확하지 않아 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 2.58이 평균보다 높은 성적이라고 명시하고 있지만, 생성된 응답은 이를 부정하는 내용을 담고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일관성이 부족하고, 사실과 상충하는 내용을 포함하고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 핵심 메시지와 상충하는 내용이 포함되어 있어 의미적으로 완전한 적절성을 갖추지 못했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.6383856371556954</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에서 지원자의 평균 점수와 표준 편차를 고려해보겠습니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**:
+  - 평균: 353.48
+  - 표준 편차: 4.66
+- 지원자의 점수는 2.58입니다.
+평균 점수가 353.48이고, 표준 편차가 4.66이라는 것을 보면, 지원자의 점수는 평균보다 상당히 낮습니다. 이는 경쟁률이 높은 간호학과에서 합격하기 어렵다는 것을 의미합니다.
+하지만, 정시 모집에서는 종합적인 평가를 통해 합격자를 선발하므로, 지원자의 인성, 학업역량, 전공적합성 등 다른 평가 영역에서도 좋은 점수를 받았다면 합격 가능성은 있습니다. 
+따라서, 정확한 합격 가능성을 판단하기 위해서는 동의대학교 간호학과의 정시 모집 요소와 지원자의 전체 평가 결과를 고려해야 합니다.
+더 자세한 정보나 추가적인 조언이 필요하시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 예비 7번의 합격 가능성이 낮다는 점을 정확하게 반영하고 있으며, 충원합격에 대한 정보도 포함되어 있습니다. 그러나 "2024년의 정원 내 모집 인원은 3명"이라는 정보는 원문에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 대체로 일관성을 유지하고 있으며, 예비 7번의 합격 가능성에 대한 설명이 원문과 일치합니다. 그러나 "정원 내 모집 인원이 제한적"이라는 추가 정보는 원문에 명시되어 있지 않으므로, 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 정보를 제공하고 있으며, 예비 7번의 합격 가능성에 대한 설명이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 문장에서 정보의 흐름이 다소 매끄럽지 않을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 추가된 정보가 원문에 명시되어 있지 않기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 정보의 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지며, 질문에 대한 적절한 답변을 제공합니다. 그러나 일부 추가 정보는 원문과의 의미적 일치에서 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.6728891564056376</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>2024년의 정원 내 모집 인원은 3명으로 확인되었습니다. 현재 게임공학과의 나군 일반 학생 모집인원은 3명입니다.
+현재 상황에서 예비번호 7번이 붙을 확률은 매우 낮습니다. 정원 내 모집 인원이 제한적이기 때문에 많은 경쟁자가 있습니다. 
+정확한 결과는 입학사정관실에서 확인할 수 있으므로, 입학사정관실에 문의하시거나, 공지사항을 통해 최신 정보를 확인해보시는 것이 좋습니다.
+더 궁금하신 점이 있다면 https://ipsi. deu. ac. kr/main. do 를 참조하여 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 게임공학과의 수능 4개 영역 등급 평균을 6.30으로 잘못 제시하고 있습니다. 이는 원본 텍스트의 평균 등급 4.78과 상충하며, 지원자의 수능 등급 4.16이 평균보다 높은 성적이라는 원본의 주장을 완전히 반박하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 4.16이 평균보다 높은 성적이라고 언급했으나, 생성된 응답에서는 4.16이 평균보다 낮다고 주장하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 지원자의 수능 등급과 동의대학교 게임공학과의 평균 등급을 비교하고 있습니다. 그러나 잘못된 정보로 인해 원본의 핵심 내용을 왜곡하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원본과의 불일치로 인해 응답의 일관성이 약해졌습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 수능 등급 평균을 잘못 제시하고 있으며, 이는 원본 텍스트의 사실과 완전히 다릅니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받았습니다. 전반적으로 원본 텍스트와의 불일치로 인해 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미가 왜곡되었습니다. 따라서 의미적 적절성이 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.7043778633953981</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 등급을 가지고 동의대학교 게임공학과에 정시로 지원하는 경우, 해당 대학의 수능 등급 평균치와 비교해보면 추가 합격 가능성은 낮습니다.
+주어진 데이터를 바탕으로 분석하면:
+- 동의대학교 게임공학과의 수능 4개 영역 등급 평균은 6.30입니다.
+- 지원자의 수능 등급이 4.16이라는 점을 고려할 때, 이는 평균치보다 훨씬 낮습니다.
+따라서, 정시로 동의대학교 게임공학과에 지원하는 경우 추가 합격 가능성은 매우 낮다고 볼 수 있습니다. 하지만 최종 합격 여부는 지원자의 총점뿐만 아니라 서류 평가, 면접 등 다른 요소도 고려되기 때문에, 정확한 판단을 위해서는 동의대학교 게임공학과의 전체 전형요건 및 평균 점수를 자세히 확인해보시는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 웹사이트를 참조하시거나 동의대학교 게임공학과 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적 3.75에 대한 판단을 위해 추가 정보가 필요하다고 언급하고 있지만, 원본 텍스트에서 제공된 정보에 기반한 합격 가능성에 대한 명확한 결론을 제시하지 않고 있습니다. 원본 텍스트의 내용을 완전히 반영하지 못하고 있어 점수를 낮게 평가했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분도 있지만, 합격 가능성에 대한 명확한 판단을 회피하고 있습니다. 원본 텍스트는 3.75 성적이 평균보다 높다고 명시하고 있으나, 생성된 응답은 이를 부정하는 듯한 인상을 주어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적에 대한 질문에 관련된 정보를 제공하고 있으며, 추가적인 정보 요청을 통해 더 나은 판단을 할 수 있도록 안내하고 있습니다. 그러나 원본 텍스트의 핵심 내용을 직접적으로 다루지 않아서 점수를 약간 낮게 평가했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 점이 있어 점수를 4로 평가했습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 부족하여 점수를 4로 평가했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 추가적인 정보를 요구하고 있지만, 원본 텍스트의 핵심 사실을 충분히 반영하지 못하고 있습니다. 따라서 정확성 점수를 3으로 평가했습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있어 전반적인 품질이 떨어진다고 판단했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 맞는 의미를 전달하고 있으며, 적절한 정보를 제공하고 있습니다. 그러나 원본 텍스트의 결론을 명확히 반영하지 못해 점수를 4로 평가했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 길어질 수 있어 점수를 4로 평가했습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.7169123468593889</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 모집에 대한 최신 기준 점수를 정확히 알 수 없습니다. 따라서, 경영정보학과 정시 성적 3.75가 최초등록자로 가능할지 여부를 판단하기 위해서는 다음과 같은 정보가 필요합니다:
+1. **2024년 경영정보학과의 정시 모집 기준 점수**: 이 정보는 동의대학교 웹사이트에서 확인하거나, 입학처에 문의하여 얻을 수 있습니다.
+2. **성적 변환 평균 및 표준 편차**: 제공된 데이터 중에는 특정 학과별 성적 변환 평균 및 표준 편차가 포함되어 있지만, 이 정보만으로는 정확한 판단이 어렵습니다. 
+3. **경쟁률 및 지원 인원**: 이 역시 동의대학교 웹사이트에서 확인하거나, 입학처에 문의하여 얻을 수 있습니다.
+따라서, 현재 제공된 정보로는 경영정보학과 정시 성적 3.75가 최초등록자로 가능할지 여부를 판단하기 어렵습니다. 더 자세한 정보를 얻기 위해서는 동의대학교 웹사이트나 입학처에 문의하는 것이 좋겠습니다.
+더 궁금하신 점이 있으시면, https://ipsi. deu. ac. kr/main. do 를 참조하거나, 동의대학교 입학처에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 지원 가능성에 대한 확정적인 판단을 내리지 않고, 추가적인 정보가 필요하다고 언급하고 있습니다. 그러나 원본 텍스트에서 제공된 평균 등급과 합격 가능성에 대한 정보는 무시되고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 원본 텍스트는 4.2의 정시 등급이 평균보다 낮다고 명시하고 있으며, 합격 가능성이 낮다고 언급하고 있습니다. 그러나 생성된 응답은 이를 반박하는 듯한 내용을 포함하고 있어 일관성이 떨어집니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과에 지원하기 위한 절차와 추가 정보를 찾는 방법에 대해 설명하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급과 합격 가능성에 대한 언급이 부족하여 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해져 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 반영하지 않으며, 특히 합격 가능성에 대한 정보가 모호하게 표현되어 있습니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 부족함이 있어 종합 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 맞는 의미를 전달하고 있으나, 원본의 핵심 정보를 간과하고 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어질 경우 혼란을 줄 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.5765430661300157</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과에 정시로 지원 가능한지 확정적으로 판단하기 어렵습니다. 경영정보학과의 정시 모집인원, 지원 인원, 경쟁률 등을 고려해야 합니다.
+현재 주어진 데이터에는 경영정보학과에 대한 구체적인 정보가 없습니다. 따라서 다음과 같은 절차를 따르는 것이 좋겠습니다:
+1. **동의대학교 홈페이지**를 방문하여 "2024학년도 모집요강"을 확인합니다.
+2. **경영정보학과**에 대한 모집인원, 지원 인원, 경쟁률 등을 확인합니다.
+3. **최초등록자**로 지원 가능한 절차와 요구사항을 확인합니다.
+만약 동의대학교 홈페이지에서 해당 정보를 찾지 못하면, "https://ipsi. deu.ac.kr/main.do" 링크를 통해 동의대학교 입학처 웹사이트에 접속하여 최신 정보를 확인할 수 있습니다.
+추가적으로, 경영정보학과의 경우 학업역량 외에도 전공적합성 등의 요소도 고려될 수 있으므로, 지원 가능성을 판단하기 위해서는 해당 과목의 특성과 자신의 적합성을 검토하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 합격 가능성을 판단하기 위해 추가적인 정보가 필요하다고 언급하고 있지만, 원본 텍스트에서 제공된 평균 등급과 비교하여 현재 정시 등급이 낮다고 명시한 부분을 간과하고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분도 있지만, 합격 가능성을 판단하기 위해 필요한 정보에 대한 설명이 추가되어 있어 일관성이 떨어지는 부분이 있습니다. 원본 텍스트의 결론과는 다소 상충하는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 평균 등급과의 비교를 충분히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트의 결론과의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 합격 가능성에 대한 판단이 원본 텍스트의 내용을 충분히 반영하지 못하고 있습니다. 따라서 정확성에서 다소 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트의 핵심 사실을 충분히 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변으로서의 역할을 잘 수행하고 있습니다. 그러나 원본 텍스트의 맥락을 완전히 반영하지는 못합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.6432777491457125</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 경영정보학과 일반학생전형에 대한 합격 확률을 정확히 판단하기 어렵습니다. 동의대학교의 수능 최초합격자 통계를 보면, 각 모집단위별로 지원자의 수와 경쟁률이 다르므로, 정확한 판단을 위해서는 다음과 같은 정보가 필요합니다:
+1. **모집단위**: 경영정보학과의 모집단위는 무엇인지 확인해야 합니다.
+2. **수능 점수 평균 및 표준편차**: 해당 모집단위의 수능 4개 영역 (국어, 수학, 영어, 사회)의 평균 점수와 표준 편차를 알아야 합니다.
+만약 경영정보학과가 인문사회과학대학에 속하고, 2024년 모집단위에서 지원자의 수와 경쟁률이 알려진다면, 해당 정보를 바탕으로 평균 점수와 표준 편차를 활용하여 합격 가능성을 추정할 수 있습니다.
+예를 들어, 만약 경영정보학과의 2024년 모집단위에서 국어+수학+탐구(2개)의 평균 점수가 300점이고 표준 편차가 10점이라면, 정시 성적이 5.33인 경우는 상대적으로 높은 점수로, 합격 가능성은 높을 수 있습니다.
+하지만 이는 추정이며, 실제 합격 여부는 동의대학교에서 발표하는 최종 합격자 명단에 따라 결정됩니다. 따라서 가장 정확한 정보를 얻기 위해서는 동의대학교의 공식 홈페이지나 입학처와 직접 문의하는 것이 좋습니다.
+더 자세한 정보를 원하시면, https://ipsi. deu. ac. kr/main. do 를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부의 지원 방법과 평가 요소에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급(영어 3.82, 수능 4.74)에 대한 언급이 없고, 성적 3.33이 평균보다 높다는 점을 명확히 하지 않아 사실성 점수가 낮아졌다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 성적에 대한 해석이 다소 다르게 나타나고 있어 일관성이 떨어진다. 원본 텍스트는 3.33이 평균보다 높은 성적이라고 명시했으나, 생성된 응답에서는 성적이 좋은 성적일 수 있다고만 언급하고 있다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부 지원에 대한 정보를 제공하며, 원본 텍스트의 주제와 관련이 있지만, 원본 텍스트의 구체적인 성적 기준에 대한 언급이 부족하여 약간의 관련성 저하가 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있다. 그러나 원본 텍스트와의 연결성이 약간 떨어져 있어 완전한 일관성은 부족하다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 성적에 대한 정보가 불완전하고, 원본 텍스트의 평균 성적에 대한 정확한 비교가 부족하여 정확성 점수가 낮아졌다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 누락되어 있어 완전한 적합성은 부족하다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.6535495975368911</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도에 바이오응용공학부(의생명공학과, 바이오의약공학과, 식품공학과)를 지원하실 경우, 학생부종합전형을 통해 최초등록자로 지원할 수 있습니다. 하지만 성적은 중요한 요소 중 하나일 뿐만 아니라, 인성, 학업역량, 전공적합성 등 다양한 평가 영역이 반영됩니다.
+2024학년도의 경우 학생부 교과성적 반영방법에서 12과목을 반영하며, 성적이 3.33 정도라면 좋은 성적일 수 있지만, 최종 결정은 여러 요소를 종합적으로 평가한 결과에 따라 달라질 수 있습니다.
+따라서, 성적 외에도 인성, 학업역량 등 다양한 측면에서 준비하시고, 필요하다면 교사나 지도교수와 상담을 통해 지원 가능성을 확인하시는 것이 좋습니다. 자세한 내용은 https://ipsi. deu. ac. kr/main. do를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보가 부정확합니다. 원문에서는 방사선학과의 수능 4개 영역 등급 평균이 3.82라고 명시되어 있지만, 생성된 응답에서는 평균 등급이 5.0 이상일 것이라고 언급하고 있습니다. 이는 사실과 다르며, 따라서 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 평균 등급에 대한 정보가 상충합니다. 방사선학과의 평균 등급이 3.82라는 원문과는 달리, 생성된 응답에서는 5.0 이상이라고 언급하여 일관성이 떨어집니다. 이로 인해 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 방사선학과에 지원하기 위한 정시 등급에 대한 질문에 적절하게 답변하고 있으며, 관련된 정보와 조언을 제공합니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 평균 등급에 대한 정보가 일관되지 않아 약간의 혼란을 줄 수 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보가 부정확하여 정확성에 문제가 있습니다. 원문에서 제공된 정보와 다르기 때문에 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 관련성, 유창성, 일관성에서 좋은 점수를 받았지만, 사실성과 정확성에서 문제가 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으나, 평균 등급에 대한 정보가 부정확하여 약간의 의미적 부적절함이 있습니다. 따라서 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 정보의 불일치로 인해 혼란을 줄 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.7196067740221709</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과에 지원하려면, 정시 등급 4.4 정도로는 경쟁률이 높아서 어려울 가능성이 큽니다. 방사선학과는 일반적으로 높은 수능 점수를 요구하기 때문입니다.
+방사선학과의 경우, 국어, 수학, 영어 등 주요 과목에서 높은 점수가 필요하며, 특히 수능 4개 영역의 평균 등급이 높아야 합니다. 예시로 보자면, 방사선학과에 지원한 학생들의 경우 수능 4개 영역의 평균 등급이 5.0 이상이었을 것입니다.
+현재 제출된 정보만으로는 정확히 판단하기 어렵습니다. 하지만 일반적으로 4.4정도의 등급은 방사선학과에 충분한 점수가 아닐 가능성이 높습니다. 
+따라서, 현재 성적 상태로는 방사선학과에 지원하는 것이 어려울 것으로 보입니다. 다른 학과를 고려하거나, 추가적으로 공부하여 성적을 향상시키는 것을 고려해보시는 것이 좋겠습니다.
+더 자세한 정보나 조언이 필요하시다면, 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하거나, 직접 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 평균 영어 등급과 관련된 정보를 정확하게 반영하고 있으며, 2.66이라는 점수가 평균보다 낮지 않다는 점도 올바르게 언급하고 있습니다. 그러나 경쟁률에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일관성을 유지하고 있습니다. 그러나 경쟁률에 대한 언급이 추가되어 있어, 원본 텍스트와의 일관성에서 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 방사선학과에 지원하는 데 필요한 정보와 조언을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 문장이 잘 연결되어 있습니다. 그러나 경쟁률에 대한 언급이 추가되면서 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 평균 영어 등급과 관련된 정보를 정확하게 전달하고 있습니다. 그러나 경쟁률에 대한 정보는 원본 텍스트에 포함되어 있지 않아 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 유용한 정보를 제공합니다. 그러나 일부 정보의 추가로 인해 약간의 부정확성이 존재합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 경쟁률에 대한 언급이 원본 텍스트의 맥락과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.6631186831441679</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2.66이라는 영어 등급 점수를 방사선학과에 지원하는 경우, 경쟁률이 7.20인 것을 고려하면 상대적으로 안전한 범위라고 볼 수 있습니다.
+방사선학과의 지원자 평균 영어 등급은 2.8이고 표준 편차가 0.74입니다. 따라서 2.66은 약간 낮은 점수이지만, 여전히 평균보다는 낮지 않은 수치입니다.
+하지만 경쟁률이 높기 때문에, 영어 등급 외에도 다른 요소들(예: 국어+수학+탐구의 표준 변환 점수 합)을 고려하여 지원 전략을 세우는 것이 중요합니다. 또한, 각 모집단위별로 평균 점수가 다르므로, 해당 모집단위의 특성과 자신의 성적을 잘 비교해보시기 바랍니다.
+더 자세한 정보를 얻고 싶으시다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참조하시거나 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 농어촌 전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 평균 성적(4.12)과 비교하여 3.66이 평균보다 높은 성적이라는 점을 명확히 반영하지 않고 있습니다. 또한, 농어촌 전형의 평가 요소에 대한 정보는 유용하지만, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 농어촌 전형에 대한 추가 정보를 제공하면서 원본 텍스트의 핵심 메시지와는 다소 상충하는 부분이 있습니다. 특히, 정시 성적만으로는 충분하지 않다는 점은 원본 텍스트의 긍정적인 전망과는 일치하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 농어촌 전형에 대한 추가적인 정보가 포함되어 있어 다소 주제에서 벗어난 느낌이 있습니다. 그러나 여전히 관련된 정보를 제공하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있어 완전한 점수를 주지는 않았습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 농어촌 전형에 대한 정보를 제공하지만, 원본 텍스트의 평균 성적과 관련된 정확한 정보를 충분히 반영하지 못하고 있습니다. 따라서 정확성 점수는 중간 정도로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 일부는 잘 작성되었지만, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 농어촌 전형에 대한 정보를 제공하는 데 있어 적합합니다. 그러나 원본 텍스트의 맥락과는 다소 차이가 있어 완전한 점수를 주지는 않았습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5909892740276997</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>2024년도에 경찰행정학전공의 농어촌 전형에 지원하셨다면, 정시 성적만으로는 충분한 정보가 아닙니다. 농어촌 전형은 학생부 종합 평가를 포함하여 여러 요소를 고려합니다.
+특히, 2024년도의 경우 학생부종합 평가에서 다음과 같은 요소들이 중요하게 반영됩니다:
+1. 공동체역량
+2. 학업역량
+3. 전공적합성
+따라서, 정시 성적이 3.66이라면, 학생부 종합 평가에서 좋은 점수를 받는 것이 중요합니다. 특히 공동체 역량과 전공 적합성을 잘 보여줄 수 있어야 합니다.
+추천되는 조치:
+1. 활발한 동아리 활동이나 봉사활동을 통해 공동체 역량을 증명할 수 있는 서류를 준비하세요.
+2. 관련 과목에서 좋은 성적을 받았다면, 그 점을 강조하는 서류를 작성해 보세요.
+3. 전공 적합성을 보여줄 수 있는 프로젝트나 연구 활동의 결과물을 포함시켜 보세요.
+이러한 요소들이 잘 반영되어 있다면 합격 가능성은 높아질 것입니다. 하지만, 최종 결정은 입학처에서 하는 것이므로, 정확한 정보는 입학처에 문의하시는 것이 좋습니다. 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 더 자세히 알아보세요.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 예비 25번의 합격 가능성에 대한 여러 요소를 언급하고 있으며, 이는 원문에서 제시된 정보와 일치합니다. 그러나 원문에서 명시된 특정 학과에 대한 언급이 없으므로, 완전한 사실성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문에서 제공된 정보와 일부 일치하지만, 예비 25번의 합격 가능성에 대한 구체적인 학과 정보를 제공하지 않아서 일관성이 떨어집니다. 원문은 특정 학과에 대한 합격 가능성을 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문의 주제와 관련이 깊으며, 예비 합격자에 대한 합격 가능성을 다루고 있습니다. 원문에서 제시된 정보와 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 원문과의 연결성이 약간 부족하여 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 예비 25번의 합격 가능성에 대한 다양한 요소를 정확하게 설명하고 있습니다. 그러나 원문에서 제공된 특정 학과에 대한 정보가 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 유용한 정보를 제공합니다. 그러나 원문과의 연결성이 약간 부족하여 완전한 점수를 주기에는 아쉬움이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과의 의미적 일치가 높지만, 특정 학과에 대한 언급이 없어서 의미적으로 완전한 적합성을 보장하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.5479375431021564</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 예비 합격자는 경쟁률이 높은 편입니다. 그러나 정시 일반학생 전형에서의 합격 여부는 여러 요소에 따라 결정되며, 단순히 예비 합격 순위만으로 확신을 내기는 어렵습니다.
+1. **수능 점수와 등급**: 수능 점수가 높고, 특히 국어, 수학, 영어 등의 등급이 좋다면 합격 가능성은 높아집니다.
+2. **학생부 성적**: 학생부에서의 교과성적이 우수하다면 이 부분에서도 유리한 위치를 차지할 수 있습니다.
+3. **면접 성적**: 면접 평가에서도 좋은 점수를 받았다면 전체적으로 더 높은 합격 확률을 보게 됩니다.
+따라서, 예비 25번이 나왔다고 해서 불합격 확정이라고 할 수는 없습니다. 각 모집단위별로 지원자의 성적과 면접 평가 등을 종합적으로 고려하여 최종 합격자를 결정합니다. 따라서, 현재의 상황에서 가장 중요한 것은 남은 시간 동안 자신의 수능 점수를 높이고, 학생부와 면접 준비에 집중하는 것입니다.
+더 자세한 정보나 도움이 필요하시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do)로 접속하여 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 설명: 생성된 응답은 동의대학교에 법경찰행정학부가 존재한다고 언급하고 있으며, 이는 원본 텍스트와 상충합니다. 원본 텍스트에서는 법경찰행정학부가 존재하지 않는다고 명확히 언급하고 있습니다. 또한, 평균 성적에 대한 정보도 원본 텍스트의 데이터와 일치하지 않습니다.
+2. Consistency Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트와 여러 면에서 일치하지 않으며, 법경찰행정학부에 대한 정보와 성적 기준이 서로 모순됩니다. 원본 텍스트의 내용과 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2  
+   - 설명: 생성된 응답은 동의대학교의 입시와 관련된 내용을 다루고 있지만, 법경찰행정학부에 대한 잘못된 정보로 인해 주제와의 관련성이 떨어집니다. 원본 텍스트의 핵심 내용과는 거리가 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 주제에 대한 명확한 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 법경찰행정학부의 존재 여부와 평균 성적에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 설명: 생성된 응답은 일부 의미적으로 적절한 부분이 있지만, 법경찰행정학부에 대한 잘못된 정보로 인해 전체적인 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 어렵지 않지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7214538944324337</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부의 정원 내 모집 인원은 40명이며, 나군에서 농어촌 학생 전형을 통해 지원할 수 있습니다. 평균 성적에 대한 정보는 제공된 데이터로 직접 추정하기 어렵지만, 일반적으로 안정권으로 들어가기 위해서는 평균 85점 이상의 성적이 필요하다고 볼 수 있습니다.
+문 닫고 들어갈 수 있는 기준은 정확한 데이터 없이 추정하기 어려우나, 대체로 90점 이상의 성적을 받으면 문 닫고 들어갈 가능성이 높다고 할 수 있습니다. 하지만 이는 법경찰행정학부에만 국한된 것이 아니라 전반적인 동의대학교의 경쟁률과 학생들의 성적 분포를 고려해야 합니다.
+따라서, 정확한 평균 성적을 확인하려면 동의대학교 입시 홈페이지나 교육청 등에서 최신 정보를 확인하는 것이 가장 좋습니다. 또한, 나군 농어촌 학생 전형에 지원할 경우 추가 서류 제출과 동점자 처리 기준 등을 고려해야 합니다.
+더 자세한 정보는 https://ipsi. deu. ac. kr/main. do 에서 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 정시 등급이 5.33인 경우에 대한 예측을 하기 위해 추가 정보가 필요하다고 언급하고 있습니다. 그러나 원본 텍스트에서는 아동학과의 평균 등급이 6.33이고, 수능 4개 영역 등급 평균이 7.08이라는 구체적인 수치를 제공하고 있으며, 이 정보를 바탕으로 합격 가능성이 높다고 명시하고 있습니다. 따라서, 생성된 응답은 원본 텍스트의 정보를 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 합격 가능성에 대한 결론이 다릅니다. 원본 텍스트는 정시 등급이 5.33일 경우 합격 가능성이 높다고 명시하고 있지만, 생성된 응답은 추가 정보가 필요하다고 하여 모호한 결론을 내리고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 합격 가능성을 판단하기 위한 추가 정보에 대해 설명하고 있습니다. 그러나 원본 텍스트의 구체적인 수치와 결론을 간과하고 있어 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 구체적인 수치와 결론을 반영하지 않고, 추가 정보가 필요하다고 언급함으로써 정확성이 떨어집니다. 원본 텍스트의 정보를 기반으로 한 명확한 결론이 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 유창성과 일관성에서 좋은 점수를 받았지만, 사실성과 정확성에서 부족함이 있어 전반적인 품질 점수는 중간 정도입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 원본의 구체적인 결론을 반영하지 않아 약간의 의미적 부적절함이 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.6132912548516735</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터만으로는 정확한 예측을 하기 어렵습니다. 정시 산출 등급이 5.33인 경우, 동의대학교 보육가정상담학과에 합격할 수 있는지 판단하기 위해서는 다음과 같은 정보들이 필요합니다:
+1. **2024학년도 모집단위의 평균 및 표준 편차**: 보육가정상담학과의 2024학년도 모집단위에서 지원자의 등급 평균과 표준 편차를 알아야 합니다.
+2. **경쟁률**: 해당 학과의 경쟁률을 확인해야 합니다.
+만약 위 정보들이 제공되었다면, 다음과 같은 방법으로 판단할 수 있습니다:
+1. **평균 및 표준 편차를 이용한 예측**:
+   - 평균 등급이 5.33보다 높다면, 경쟁률이 높을 가능성이 크므로 합격하기 어려울 수 있습니다.
+   - 반대로 평균 등급이 5.33보다 낮다면, 합격 가능성은 더 큽니다.
+2. **경쟁률을 고려한 예측**:
+   - 경쟁률이 높다면, 평균 등급이 5.33보다 높아야 합격할 가능성이 크습니다.
+   - 경쟁률이 낮다면, 평균 등급이 5.33보다 낮아도 합격 가능성은 더 큽니다.
+위 정보들을 확인하여 판단해 보시기 바랍니다. 만약 필요한 정보가 제공되지 않았다면, 해당 정보를 찾아보거나 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 공식 웹사이트에서 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 충원 합격자 발표 일정과 예비 번호에 대한 정보를 포함하고 있으며, 대체로 정확하지만 "합격 가능성은 아직 높지 않을 것으로 판단됩니다"라는 부분은 다소 주관적이며, 원문에서 명확히 언급된 내용과는 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부 일치하지만, "합격 가능성은 아직 높지 않을 것으로 판단됩니다"라는 주장은 원문에서의 가능성에 대한 언급과 일치하지 않으며, 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 예비 번호와 충원 합격 가능성에 대한 정보를 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 주장이 원문과의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 합격 가능성에 대한 주관적인 판단이 포함되어 있어 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으나, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 의미적으로 잘 연결되어 있으나, 일부 주관적인 표현이 포함되어 있어 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.6384862749776029</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담 충원 합격 3차에서 예비 12번을 받으셨다면, 합격 가능성은 아직 높지 않을 것으로 판단됩니다. 하지만 최종 합격자 발표까지 시간이 남아 있으므로, 계속해서 관심을 가지고 확인하는 것이 좋습니다.
+현재의 상황에서는 다음 단계로 진행되는 합격자 발표와 등록금 납부를 기다리는 것이 가장 적절합니다. 합격자 발표일정에 따라 홈페이지에서 개별 조회하거나 고지서를 출력하여 확인하시기 바랍니다.
+더 자세한 정보나 추가적인 질문이 있으시다면, https://ipsi. deu. ac. kr/main. do 를 참조해보세요. 해당 사이트에서는 최신 정보와 안내가 제공됩니다.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 유아교육학과의 경쟁률과 지원 인원에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 유아교육학과의 평균 성적(4.18)과 비교했을 때, 4.75의 성적이 합격 가능성이 높다고 주장하는 부분은 사실과 다릅니다. 원본 텍스트는 4.75로는 지원하기 어렵다고 명시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 포함하고 있습니다. 원본 텍스트는 4.75의 성적이 유아교육학과에 지원하기 어렵다고 명시했으나, 생성된 응답은 이 성적이 충분히 좋은 성적이라고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보를 다루고 있으며, 질문의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 정보인 평균 성적에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 유아교육학과에 대한 지원 가능성에 대한 주장은 원본 텍스트와 일치하지 않으므로 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서의 문제로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 원본 텍스트와의 불일치로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 그러나 일부 내용이 원본 텍스트와 상충하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7889743736610347</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 4개 영역 등급 점수 합은 평균치인 409.60보다 약간 높습니다. 표준 편차가 4.08이므로, 이 점수는 상당히 좋은 성적입니다.
+유아교육학과의 경우, 지원 인원이 13명이고 모집 인원이 4명으로 경쟁률이 3.25입니다. 평균적인 경쟁률을 고려하면, 4.75라는 점수는 충분히 좋은 성적일 것입니다.
+하지만 유아교육학과의 경우, 지원 인원이 많고 모집 인원이 적기 때문에 경쟁률이 높습니다. 따라서 이 점수로는 확실하게 합격할 수 있을 것으로 보입니다. 그러나 최종 합격 여부는 입시 전반적인 요소와 서류 평가, 면접 등 다양한 요인에 따라 결정되므로, 모든 준비를 철저히 하여야 합니다.
+만약 더 자세한 정보나 조언이 필요하시다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참조해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답에서 보육가정상담학과의 수능 4개 영역 등급 평균을 4.17로 언급했으나, 원본 텍스트에서는 이 정보가 제공되지 않았습니다. 또한, 원본 텍스트는 아동학과의 평균 등급에 대한 정보만을 제공하고 있습니다. 따라서 일부 정보는 정확하지 않거나 원본에 기반하지 않은 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 추가된 정보(평균 및 표준 편차)가 원본과 일치하지 않거나 명확하지 않습니다. 따라서 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변으로서 관련성이 높지만, 원본 텍스트의 특정 세부사항을 포함하지 않거나 다르게 해석하고 있습니다. 전반적으로 관련성이 있지만, 일부 정보는 불필요할 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 정보가 추가되어 혼란을 줄 수 있는 요소가 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답에서 제공된 수치(4.17, 0.19)는 원본 텍스트에 명시된 내용과 일치하지 않으며, 이는 정확성에 영향을 미칩니다. 원본 텍스트의 정보와 비교할 때 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점이 있지만, 정보의 정확성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 전반적으로 적절한 내용입니다. 그러나 일부 추가 정보는 맥락에 맞지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장은 다소 복잡할 수 있어 이해하는 데 시간이 걸릴 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.6451185208002136</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>4.16이라는 등급을 가지고 보육가정상담학과 일반학생전형에 지원하셨다면, 충분히 합격 가능성은 있습니다. 하지만 확실한 것은 아니므로, 실제 평균 및 표준 편차를 고려해야 합니다.
+보육가정상담학과의 경우, "수능 4개 영역 등급"의 평균이 4.17이고, 표준 편차는 0.19입니다. 이 수치들은 지원자의 성적을 평균에 가까운 수준으로 보여줍니다.
+따라서, 4.16이라는 점수는 평균과 매우 가깝습니다. 표준 편차가 작은 것도 고려해야 하며, 이는 점수가 상대적으로 일관성 있게 분포되어 있다는 것을 의미합니다.
+하지만, 최종 합격 여부는 경쟁률, 지원자들의 성적 분포 등 다양한 요인에 따라 결정됩니다. 따라서, 추합까지 생각한다면 확실한 합격을 보장받기 위해서는 추가적인 정보를 확인하는 것이 좋습니다.
+추가적으로, "나군 학생부교과(농어촌학생전형)  - 정원외 제출서류"와 같은 항목들을 참고하여 필요한 서류를 준비하시고, 최종 결과를 기다리시는 것이 좋겠습니다. 
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속해 보시거나, 대학 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 무시하고, 소프트웨어공학부에 대한 정보를 제공하고 있습니다. 이는 원본 텍스트와 상충하며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 모순됩니다. 원본 텍스트는 소프트웨어융합학과에 대한 정시 지원 불가를 명확히 하고 있지만, 생성된 응답은 다른 학과에 대한 정보를 제공하여 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 질문과 관련이 없습니다. 질문은 소프트웨어융합학과의 정시 지원 가능성에 대한 것이지만, 생성된 응답은 다른 학과에 대한 정보로 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련이 없기 때문에 일관된 흐름을 유지하지 못합니다. 원본 텍스트와의 연결이 부족하여 논리적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 소프트웨어융합학과의 정시 지원 불가라는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 관계가 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 주제가 다르기 때문에 질문에 대한 명확한 답변으로는 이해하기 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.3794779604663572</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부가 모집단위로 포함되어 있습니다. 이 학과의 경우, 지원자의 평균 수능 4개 영역(가산점 포함) 표준 변환 점수 합은 약 317.87입니다 (표준 편차는 7.35). 따라서 대략적으로 320 등급 정도의 점수가 필요할 것으로 예상됩니다.
+하지만 정확한 수능 점수 요구사항은 매년 변동될 수 있으므로, 최신 정보를 확인하기 위해서는 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하시거나 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 면접 준비에 대한 구체적인 조언을 제공하고 있으며, 서류 평가와 면접 고사에 대한 정보도 포함되어 있습니다. 그러나 "따로 준비해야 하는 서류는 없습니다"라는 부분은 원문에서 명시된 서류 평가와 관련된 내용을 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 면접 준비에 대한 조언이 원문에서 언급된 서류 평가와의 일관성이 부족합니다. 특히, 서류 평가에 대한 언급이 없고, 면접 점수에 대한 강조가 원문과 다소 상충합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 소프트웨어융합학과의 면접 준비와 관련된 정보로, 원문에서 다루고 있는 주제와 매우 관련성이 높습니다. 면접 준비에 대한 구체적인 조언이 포함되어 있어 주제에 잘 맞습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 준비에 대한 각 항목이 명확하게 나열되어 있습니다. 그러나 서류 평가와의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 서류 평가와 관련된 세부 사항이 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성, 유창성, 일관성 등에서 좋은 점수를 받고 있습니다. 그러나 일부 세부 사항의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 높지만, 서류 평가와 관련된 정보가 부족하여 의미적으로 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.5864359318281789</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어융합과의 면접에서는 주로 학업역량, 전공적합성 등에 대한 질문이 제기될 것입니다. 따라서 면접 점수보다는 지원동기에 대한 내용을 더 많이 보실 것으로 예상됩니다.
+따라서 면접 준비 시에는 다음과 같은 사항들을 꼭 고려해보시기 바랍니다:
+1. **지원동기 및 학업계획**: 지원 동기를 명확히 설명하고, 입학 후 어떤 학업 계획을 세울 것인지 구체적으로 이야기해 보세요.
+2. **학업역량**: 고교 생활 중 학업에 대한 어려움과 이를 해결하기 위한 노력을 어떻게 했는지 설명하세요. 이때 실제 경험 사례를 들어보시면 좋습니다.
+3. **전공적합성**: 지원하는 전공(계열)에 대한 관심과 이해를 보여주세요. 진로 탐색 활동을 통해 얻은 성장 과정과 결과를 이야기해 보세요.
+4. **기타사항**: 서류 평가 시 작성된 면접 질문지를 활용하여 제출서류의 진위 여부를 검증받는 점도 주목해야 합니다.
+따로 준비해야 하는 서류는 없습니다. 단, 면접 당일에는 블라인드 면접 규정을 준수해 주세요 (개인 신상 정보 노출 금지, 교복 착용 금지 등).
+더 궁금하신 사항이 있으시면 https://ipsi. deu. ac. kr/main. do 에 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 평균 수능 등급에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 평균 등급이 4.12라고 명시되어 있지만, 생성된 응답에서는 5.21이라는 잘못된 수치를 제시하고 있습니다. 이는 사실과 크게 다르며, 따라서 사실성 점수는 1로 평가됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본 텍스트는 4.08의 성적이 최초합격 가능성이 있지만 확실하지 않다고 언급하는 반면, 생성된 응답은 4.08이 매우 낮다고 주장합니다. 이러한 상충으로 인해 일관성 점수는 1로 평가됩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부에 대한 질문과 관련이 있지만, 중어중국학과에 대한 정보로 전환되면서 주제에서 벗어났습니다. 따라서 관련성 점수는 3으로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다. 따라서 유창성 점수는 4로 평가됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해져서 일관된 주제를 유지하지 못합니다. 따라서 일관성 점수는 3으로 평가됩니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 1로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받았기 때문에, 다차원 품질 점수는 1로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어나 있으며, 잘못된 정보를 제공하고 있습니다. 따라서 의미 적합성 점수는 2로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 4로 평가됩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.8004500669547004</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 중어중국학과의 경우, 최초합격자의 평균 수능 4개 영역 등급이 5.21이며 표준 편차가 0.33입니다. 이는 매우 높은 점수를 요구하는 것을 알 수 있습니다.
+당신의 수능 4개 영역 등급이 4.08이고, 평균 5.21에 비해 상대적으로 낮습니다. 따라서 정시 성적이 4.08인 경우 동의대학교 소프트웨어공학부로 최초합격하는 것은 매우 어려울 것으로 보입니다.
+만약 더 자세한 정보나 다른 전형 방법을 고려하고자 한다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시거나 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과가 아닌 소프트웨어공학부에 대한 정보를 제공하고 있으며, 이는 원본 텍스트와 일치하지 않습니다. 또한, 제공된 데이터에 대한 언급이 있지만, 원본 텍스트에는 그러한 데이터가 포함되어 있지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보(소프트웨어공학부에 대한 언급)를 포함하고 있어 일관성이 부족합니다. 원본 텍스트는 소프트웨어융합학과에 대한 정보만을 다루고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과에 대한 질문에 대한 답변으로 보이지만, 소프트웨어공학부에 대한 정보로 대체되어 있어 관련성이 떨어집니다. 그러나 여전히 입시와 관련된 정보이므로 일부 관련성은 유지됩니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 내용의 일관성이 떨어져서 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 소프트웨어융합학과와 소프트웨어공학부의 혼동으로 인해 일관성이 떨어집니다. 이로 인해 전체적인 일관성이 약간 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 소프트웨어융합학과에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 전체적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 소프트웨어융합학과에 대한 질문에 소프트웨어공학부로 대체된 정보는 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 내용의 혼동으로 인해 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.6161844519149102</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024년도에 소프트웨어공학부의 경우, 평균 5등급은 경쟁률이 매우 높은 영역 중 하나입니다. 제공된 데이터에서 소프트웨어공학부의 영어 등급 평균은 3.77이며 표준 편차가 0.67으로 보니, 5등급을 받는 학생들도 있습니다만, 그 비율이 상대적으로 낮습니다.
+따라서, 평균 5등급으로 소프트웨어공학부에 지원하는 것은 가능하지만, 경쟁률이 높아 충원되지 않을 확률도 높습니다. 정확한 가능성은 지원자의 총 점수와 타 지원자들의 성적 분포를 고려해야 하며, 이 정보는 제공된 데이터로는 알 수 없습니다.
+더 자세한 정보나 추가적인 조언이 필요하시다면, https://ipsi. deu. ac. kr/main. do 에 접속하여 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 신소재공학과의 평균 점수를 399.26으로 잘못 언급하고 있으며, 이는 원본 텍스트에 명시된 정보와 일치하지 않습니다. 또한, 4.28이라는 점수가 평균보다 낮다고 주장하지만, 원본 텍스트에서는 4.28이 최초합격자와 최종등록자의 평균 등급보다 높다고 명시되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 4.28이 평균보다 높다고 하였으나, 생성된 응답에서는 낮다고 주장하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 신소재공학과의 경쟁률과 합격 가능성에 대한 정보를 포함하고 있습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 동떨어진 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 잘 연결되어 있지 않은 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 특히 평균 점수에 대한 잘못된 언급이 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 불일치로 인해 일부 내용이 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6329796561317048</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수는 동의대학교 신소재공학과의 평균 점수인 399.26보다 낮습니다. 표준 편차가 16.29이므로, 4.28은 약 0.75 표준편차를 초과합니다.
+신소재공학과의 경우, 지원 인원이 많고 경쟁률이 높습니다 (지원인원: 81명, 모집인원: 56명). 이는 합격 점수가 상대적으로 높아질 가능성을 높입니다. 그러나 정확한 합격 가능성은 지원자의 전체 성적과 경쟁률, 그리고 해당년도의 입학사정관의 평가 기준 등에 따라 달라질 수 있습니다.
+따라서, 4.28이라는 점수로는 신소재공학과에서 합격하기 어렵다고 추정할 수 있습니다. 그러나 최종 합격 여부는 동의대학교 입학사정관이 결정합니다. 따라서, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하거나 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에서 자기소개서가 필요 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "서류 평가 비율이 70%"라는 구체적인 수치는 출처 텍스트에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 출처 텍스트와 일관되게 자기소개서가 필요 없다는 내용을 전달하고 있습니다. 다만, 추가적인 정보가 포함되어 있어 약간의 일관성 저하가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 출처 텍스트의 주제와 관련이 깊으며, 자기소개서의 필요성에 대한 질문에 대한 명확한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가적인 세부사항이 포함되어 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 전반적으로 정확하지만, 서류 평가 비율에 대한 구체적인 수치가 출처 텍스트에 없으므로 이 부분에서 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부사항에서 약간의 부정확성이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 출처 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 추가적인 정보가 포함되어 있어 약간의 맥락에서 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.610665088184827</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능 일반학생전형에서는 자기소개서 작성은 필수 항목이 아닙니다. 전형 요소 중 서류 평가 비율이 높지만, 자기소개서는 포함되어 있지 않습니다.
+자기소개서가 필요 없는 이유는 다음과 같습니다:
+1. **학력 및 성적 중심**: 수능 점수와 학교생활기록부 등 학력 및 성적을 중점적으로 평가합니다.
+2. **전형 요소 반영 비율**: 서류 평가 비율이 70%로 높지만, 자기소개서는 포함되어 있지 않습니다.
+따라서 수능 일반학생전형으로 지원할 때는 자기소개서 작성에 대한 걱정을 하지 않으셔도 됩니다. 주요 서류를 준비하시면 됩니다. 필요한 서류들은 다음과 같습니다:
+- **고교 학교생활기록부**
+- **수능 점수**
+자세한 지원 방법과 요구 서류 등은 동의대학교 입학처 웹사이트에서 확인하실 수 있습니다. 필요하다면 해당 사이트를 방문해 보시는 것이 좋습니다.
+https://ipsi. deu. ac. kr/main. do
+이 정보가 도움이 되길 바랍니다!</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 등급 4.5에 대한 합격 가능성을 평가하기 위해 고려해야 할 요소들을 잘 설명하고 있습니다. 그러나, 특정 학과의 평균 등급과 관련된 정보가 부족하여 약간의 사실성 결여가 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 추가 모집에 대한 정보와 경쟁률을 고려하는 점에서 일관성을 유지하고 있습니다. 다만, 일부 세부 사항에서 원본 텍스트와의 연결이 약간 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 매우 관련이 깊으며, 수능 등급과 추가 모집에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 몇몇 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 문장 간의 연결이 더 매끄럽게 이루어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 수능 등급과 관련된 정보에 대해 정확하게 설명하고 있으며, 예시를 통해 이해를 돕고 있습니다. 그러나 특정 학과의 평균 등급에 대한 정보가 부족하여 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 개선의 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 특정 세부 사항에서 약간의 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.7041713679460472</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 수능 등급을 가지고 추가모집이나 정시 모집에 들어갈 수 있는지 판단하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **모집단위**: 어떤 단과대학의 어떤 학과에 지원할 것인지에 따라 경쟁률이 달라질 수 있습니다.
+2. **경쟁률**: 해당 모집단위의 경쟁률을 확인해야 합니다. 경쟁률이 높다면 4.5 등급으로는 충분히 들어갈 수 있는 확률이 낮아질 수 있습니다.
+3. **지원 인원 및 모집 인원**: 지원 인원과 모집 인원 간의 차이도 중요합니다. 지원 인원이 많고 모집 인원이 적다면 경쟁률이 높아지게 됩니다.
+예를 들어, 공과대학의 신소재공학과는 2024년 모집인원이 56명이고 지원인원이 81명으로 경쟁률이 1.45입니다. 이 경우 4.5 등급으로는 충분히 들어갈 수 있을 것입니다.
+반면에, 의생명공학과와 바이오의약공학과는 각각 모집인원이 99명이고 지원인원이 238명으로 경쟁률이 2.40입니다. 이 경우 4.5 등급으로는 충분히 들어갈 수 있는 확률이 낮아질 것입니다.
+따라서, 정확한 판단을 위해서는 해당 단과대학의 모집단위별 지원 인원 및 모집 인원, 경쟁률 등을 확인해야 합니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do"를 참조하여 자세한 정보를 얻으시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2023년도와 2024년도에 대한 정보를 제공하고 있지만, 신소재공학과의 평균 등급에 대한 구체적인 수치를 언급하지 않고 있습니다. 또한, 신소재공학과와 고분자나노공학과의 분리에 대한 정보는 있지만, 원본 텍스트의 핵심 내용인 평균 등급에 대한 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 신소재공학과의 평균 등급에 대한 정보가 부족하여 일관성이 떨어집니다. 원본 텍스트에서 제공된 평균 등급 정보가 포함되지 않아 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 신소재공학부에 대한 질문에 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 핵심 내용인 평균 등급에 대한 정보가 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 2023년도와 2024년도에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급에 대한 구체적인 수치가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있으며, 적절한 맥락에서 정보를 제공합니다. 그러나 원본 텍스트의 핵심 내용이 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확하게 정보를 전달하고 있습니다. 그러나 일부 문장이 복잡할 수 있어 이해하기 어려운 부분이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.524916543236134</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2023년도에 동의대학교 신소재공학부는 정시 모집군 '나'로 진행되었고, 2024년도에는 '다'로 변경되었습니다. 
+현재 정보를 바탕으로 2024년도의 경우 신소재공학과와 고분자나노공학과로 분리되어 있으므로 정시 등급에 대한 명확한 답변을 드릴 수 없습니다.
+더 자세한 정보를 얻기 위해서는 공식 홈페이지 (https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 "447점이라는 표준 변환 점수가 작년에 비해 약간 낮아졌습니다."라고 언급하고 있지만, 원문에서는 447점이 작년 신소재공학과의 평균 점수보다 훨씬 높다고 명시하고 있습니다. 따라서, 이 부분에서 사실과 다르게 표현되었습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문은 447점이 평균보다 높다고 하였으나, 생성된 응답은 점수가 낮아졌다고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 관련된 내용을 다루고 있지만, 원문에서 강조된 점수의 높음에 대한 언급이 부족하여 약간의 관련성 결여가 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 가지 요소를 포함하고 있지만, 원문과의 연결이 명확하지 않아 일관된 흐름이 부족합니다. 특히, 점수의 변화에 대한 설명이 원문과의 관계를 명확히 하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 상충하는 정보를 포함하고 있어 정확성이 떨어집니다. 특히, 점수의 변화에 대한 잘못된 해석이 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 의미적 일치가 부족하여 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 원문과의 관계에서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.6313519970673955</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>447점이라는 표준 변환 점수가 작년에 비해 약간 낮아졌습니다. 하지만, 작년의 최종 평균 점수와 현재의 점수 차이가 매우 미세한 수치라는 점을 고려하면, 가능성이 여전히 있습니다.
+현재 제공된 데이터를 바탕으로 다음과 같은 결론을 내릴 수 있습니다:
+1. **표준 변환 점수의 범위**: 작년과 현재의 표준 변환 점수가 매우 가까운 수치를 보여주고 있습니다.
+2. **경쟁률 및 지원 인원**: 모집단위별 경쟁률이 다르므로, 특정 단과대학이나 모집단위에서의 입학 가능성은 지원 인원과 경쟁률에 따라 달라질 수 있습니다.
+따라서, 작년보다 약간 낮아진 점수를 가지고도 최종 평균 점수가 447점 이상으로 나올 가능성이 있습니다. 하지만, 이는 매우 미세한 차이일 뿐이고, 실제 입학 가능성은 모집단위별 경쟁률과 지원 인원에 크게 의존합니다.
+더 정확한 정보를 얻기 위해서는 동의대학교 입학사정관이나 해당 대학의 입학처 웹사이트를 참조하는 것이 좋습니다. 필요하다면, 직접 문의하여 최신 정보와 더 구체적인 조언을 받으시는 것을 추천드립니다.
+[https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 신소재공학부의 학생부종합 평가 기준에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제공된 구체적인 성적 데이터와 비교했을 때 사실과 다릅니다. 원본 텍스트는 신소재공학부의 평균 성적에 대한 구체적인 수치를 제시하고 있으며, 생성된 응답은 이러한 정보를 무시하고 다른 평가 기준에 대해 설명하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 원본 텍스트는 특정 성적 기준에 대한 정보를 제공하는 반면, 생성된 응답은 학생부종합 평가 기준에 대한 설명으로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않습니다. 원본 텍스트는 신소재공학부의 성적 기준에 대한 정보를 제공하는 반면, 생성된 응답은 학생부종합 평가에 대한 정보로 주제를 벗어나고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 주제가 바뀌면서 흐름이 끊기는 느낌이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 성적 데이터와 관련된 정확한 정보를 제공하지 않으며, 잘못된 정보가 포함되어 있습니다. 원본 텍스트의 성적 기준을 무시하고 다른 기준을 제시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 원본 텍스트의 주제를 벗어나 다른 평가 기준에 대한 설명으로 흐름이 바뀌었습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 주제가 바뀌면서 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.5626290033254454</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>2024학년도 신소재공학과의 학생부종합 평가 기준을 보면, 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 등급 평균 상위자에 선발됩니다. 현재 4.3등급대인 성적은 4.1~4.2 정도로 예상되므로, 학생부종합 평가 기준을 충족하는 것은 어렵지 않을 것으로 보입니다.
+하지만, 정시 성적이 좋은 만큼 학생부 종합 평가에서 높은 점수를 받는 것이 중요합니다. 특히 국어, 수학, 영어 등 주요 과목의 성적을 높이는 것이 필요합니다. 또한 면접에서도 좋은 인상을 줄 수 있도록 준비하는 것이 좋습니다.
+만약에 정시 성적이 조금 부족하다면, 학생부 종합 평가에서 높은 점수를 받는 방법을 고려해보세요. 예를 들어, 다양한 활동이나 특기사항을 잘 기재하고, 면접에서도 자신감 있게 대답하는 것이 도움이 될 수 있습니다.
+자세한 정보는 https://ipsi. deu. ac. kr/main. do 웹사이트에서 확인하시거나, 학교 관계자에게 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 제시된 성적 수치들이 원본 텍스트의 수치와 일치하지 않으며, 특히 "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합"이 419.33로 잘못 기재되어 있습니다. 원본 텍스트의 평균 점수는 301.87입니다. 영어 등급과 수능 4개 영역 등급 또한 원본과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 여러 부분에서 일치하지 않으며, 특히 성적 수치에서 큰 차이가 있습니다. 이러한 불일치는 응답의 일관성을 저해합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 정보를 제공하고 있으며, 질문의 주제와 잘 맞아떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 성적 수치의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 응답에서 제공된 성적 수치가 원본 텍스트와 크게 다르기 때문에 정확성이 낮습니다. 특히, 평균 점수와 등급이 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 응답은 관련성은 높지만, 사실성과 정확성에서 큰 문제를 가지고 있습니다. 따라서 전반적인 품질이 중간 정도로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답의 의미는 원본 텍스트의 맥락과 잘 맞아떨어지지만, 잘못된 수치로 인해 의미 전달에 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 성적 수치의 오류로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.7830717513296916</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 인공지능학과는 &lt;나&gt;군 수능(일반학생전형)에 해당합니다. 이 전형에서 학생들의 성적이 평균적으로 다음과 같이 반영됩니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 419.33
+- **영어 등급**: 3.88
+- **수능 4개 영역 등급**: 4.65
+이러한 성적을 기반으로 지원하시면 됩니다. 하지만 이는 평균적인 수치이며, 실제 입학에 필요한 점수는 경쟁률과 지원 인원 등을 고려해야 합니다. 따라서 최종적으로 필요할 점수를 정확히 알기 위해서는 동의대학교의 공식 웹사이트나 학교 관계자에게 문의하시는 것이 좋습니다.
+더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속해보세요.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 5.27의 성적이 충원 합격 가능성에 대한 정보를 제공하지만, 특정 학과에 대한 구체적인 데이터나 비교가 부족하여 다소 모호한 부분이 있습니다. 특히 "의료보건생활대학 물리치료학과"에 대한 언급은 원문에 포함된 정보와 일치하지 않으며, 다른 학과에 대한 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문에서 제공된 정보와 일부 일치하지만, 특정 학과에 대한 언급이 원문과 다르며, 전체적인 일관성이 떨어집니다. 예를 들어, 물리치료학과에 대한 언급은 원문에 포함된 충원 합격 가능 학과 목록과 일치하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 5.27의 성적에 대한 질문에 관련된 정보를 제공하고 있으나, 원문에서 제시된 구체적인 학과 목록과 성적 기준에 대한 정보가 부족하여 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 연결된 내용을 가지고 있으며, 성적에 대한 추정과 관련된 정보를 잘 전달하고 있습니다. 그러나 원문과의 연결이 약해지는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 5.27의 성적에 대한 일반적인 추정은 제공하지만, 구체적인 학과에 대한 정보가 부정확하거나 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 원문과의 일치성, 관련성, 정확성에서 다소 부족한 점이 있어 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 전달하고 있으나, 특정 학과에 대한 정보가 부정확하여 의미 전달이 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으나, 일부 정보의 부족으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.6080777722233348</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수는 수능 4개 영역(국어, 수학, 외국어, 과탐) 등급 평균치에 가까워 보입니다. 특히 "의료보건생활대학 물리치료학과"에서는 표준 변환 점수가 483.58이므로, 5.27은 약간 낮은 수준으로 판단될 수 있습니다.
+하지만, 이는 단순히 성적만을 기반으로 한 추정이며, 실제로 합격 여부는 서류 평가와 면접 등 다른 요소들에 따라 결정됩니다. 따라서 5.27의 점수로도 충분한 경쟁력을 갖추고 있을 수 있습니다.
+더 정확한 판단을 위해서는 해당 대학과 모집단위의 전체적인 성적 분포를 고려해야 합니다. 만약 더 자세한 정보나 조언이 필요하다면, "https://ipsi. deu. ac. kr/main. do"로 접속하여 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 관련된 정보를 포함하고 있으며, 정시 성적 4.2에 대한 합격 가능성을 논의하고 있습니다. 그러나 일부 세부사항(예: 모집 인원, 지원 인원 등)은 원본 텍스트에 명시되어 있지 않으므로, 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 추가적인 정보(모집 인원, 경쟁률 등)를 포함하고 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 정시 성적 4.2에 대한 합격 가능성을 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 정보가 추가되어 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 정시 성적 4.2에 대한 합격 가능성을 잘 설명하고 있으며, 관련된 통계 정보를 제공하고 있습니다. 그러나 원본 텍스트의 특정 세부사항이 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 사실성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 추가 정보가 원본 텍스트와의 일관성을 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6786127636641842</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 ICT융합공과대학 소프트웨어공학부에 대한 정보를 바탕으로, 정시 성적 4.2의 경우 합격 가능성은 어느 정도일지 추정해보겠습니다.
+소프트웨어공학부의 모집 인원은 30명이고 지원 인원이 146명입니다. 이는 경쟁률이 약 4.87:1임을 의미합니다. 또한, 해당 학과의 '국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합' 평균은 317.87입니다.
+정시 성적 4.2는 대략적으로 국어, 수학, 탐구 등에서 좋은 성적을 받았음을 의미합니다. 그러나 정확한 합격 가능성은 표준 변환 점수와 지원자의 전체 성적 분포를 고려해야 합니다. 평균 점수가 317.87이고 표준 편차가 7.35인 것을 감안하면, 4.2의 점수는 상당히 높은 점수로 볼 수 있습니다.
+따라서, 정시 성적 4.2라면 합격 가능성은 매우 높다고 추정할 수 있습니다. 그러나 최종 합격 여부는 지원자의 전체 성적 분포와 경쟁률을 고려해야 하므로, 정확한 확률을 알기 위해서는 동의대학교의 입학사정관실에 문의하거나, 해당 대학의 공식 웹사이트를 참조하는 것이 좋습니다.
+더 자세한 정보를 얻고 싶으시다면 [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속해보세요.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 3.92라는 성적이 높은 점수라는 점을 언급하고 있으며, 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있다는 점에서 사실적으로 일치합니다. 그러나 특정 학교의 정시 모집 요건에 대한 정보가 부족하다는 점에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 화학환경공학부의 정시 모집 요건에 대한 일반적인 정보를 제공하지만, 원본 텍스트에서 제시된 구체적인 평균 등급과 비교할 때 일관성이 떨어집니다. 원본 텍스트는 3.92가 합격 가능성이 높다고 명시하고 있지만, 생성된 응답은 일반적인 기준을 언급하며 다소 모호합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 화학환경공학부의 정시 모집에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 원본 텍스트의 주요 내용과 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 특정 부분에서 정보의 흐름이 다소 느슨하게 연결될 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 3.92라는 성적이 높은 점수라는 점에서 정확하지만, 특정 대학의 정시 모집 요건에 대한 정보가 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성 등에서 좋은 점수를 받고 있습니다. 그러나 일부 정보의 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 특정 세부사항이 부족하여 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.6989175542318754</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92라는 성적이 주어졌을 때, 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 정시 모집에 지원이 가능한지 확인해보겠습니다.
+현재 제공된 정보로는 특정 학교의 정시 모집 요건이 명확히 주어져 있지 않습니다. 하지만 일반적으로 대학별로 정시 모집 시 학생부 성적의 기준을 설정합니다. 3.92라는 성적이 상당히 높은 점수이므로, 대부분의 대학에서는 이 점수를 충족할 수 있을 것입니다.
+화학환경공학부의 경우, 정시 모집 시 학생부 교과성적을 반영합니다. 3.92라는 성적이 주어졌다면, 해당 대학의 정시 모집 요건을 확인해야 합니다. 일반적으로는 이 점수를 충족할 수 있을 것입니다.
+만약 특정 대학의 정시 모집 요건이 궁금하시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 해당 대학의 공식 웹사이트에서 최신 정보를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성을 판단하기 어렵다고 언급하고 있지만, 원본 텍스트에서는 귀하의 성적이 최초합격자의 평균값보다 높으므로 합격 가능성이 높다고 명시하고 있습니다. 이로 인해 사실관계에서 큰 차이가 발생합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 상충합니다. 원본에서는 합격 가능성이 높다고 판단했으나, 생성된 응답은 그 가능성을 부정하고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부에 대한 추가 정보를 요청하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 핵심 내용인 합격 가능성에 대한 판단을 무시하고 있어 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원본 텍스트와의 연결이 약해져서 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 합격 가능성에 대한 판단을 잘못된 방향으로 이끌고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 일부 긍정적인 요소가 있지만, 사실관계와 일관성에서 큰 문제를 안고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락을 무시하고 있어 의미적으로 완전한 적합성을 보이지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 원본 텍스트와의 연결이 약해 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6598190770160728</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능성을 판단하기 어렵습니다. 동의대학교의 각 모집단위별 수능 최소합격 기준 점수를 확인해야 합니다.
+화학환경공학부에 대한 정보가 필요합니다:
+1. 2024년도 화학환경공학부의 모집인원과 지원 인원
+2. 2024년도 화학환경공학부의 수능 최소합격 기준 점수
+이 정보를 확인한 후, 자신의 수능 점수가 해당 학부의 최소합격 기준 점수보다 높다면 합격 가능성이 있습니다. 만약 해당 정보가 없다면, 공식 홈페이지나 입학처에 문의하여 확인해야 합니다.
+추가로 참고할 만한 링크는 다음과 같습니다:
+https://ipsi. deu. ac. kr/main. do
+이 링크를 통해 동의대학교의 최신 합격 기준 점수와 모집 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 평균 점수가 432.12로 언급되었으나, 이는 원본 텍스트에 명시된 정보와 일치하지 않습니다. 원본 텍스트에는 평균 점수가 286.77로 나와 있으며, 이로 인해 생성된 응답의 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 예를 들어, 평균 점수와 표준 편차에 대한 정보가 잘못되어 있으며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 영화학과의 합격 가능성에 대한 정보를 포함하고 있습니다. 그러나 잘못된 수치로 인해 일부 정보가 부정확하게 전달되었습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답의 구조는 대체로 일관되지만, 잘못된 정보로 인해 논리적 흐름이 방해받고 있습니다. 특히 평균 점수와 관련된 부분에서 혼란이 발생합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 평균 점수와 표준 편차에 대한 잘못된 정보가 포함되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 대체로 적절하지만, 잘못된 수치로 인해 일부 내용이 부적절하게 전달되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6563565499522317</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2의 성적을 가지고 영화학과를 지원하셨다면, 평균 점수가 432.12이고 표준 편차가 11.00인 것을 고려할 때, 당신의 성적이 약간 낮은 편입니다. 그러나 표준 편차가 상대적으로 작기 때문에, 4.2는 평균보다 약간 낮지만 여전히 합격 가능성은 있습니다.
+영화학과의 경우, 지원 인원이 11명이고 충원 합격자가 6명이라는 점을 고려하면 경쟁률이 높지 않아서, 성적이 조금 낮더라도 합격할 수 있는 기회는 있습니다. 그러나 이는 확실한 보장은 아니며, 다른 지원자의 성적과 서류 평가 결과에 따라 달라질 수 있습니다.
+따라서, 최종 합격 여부는 서류평가와 면접평가 등 다양한 요소를 종합적으로 판단하여 결정됩니다. 따라서, 서류 준비와 면접 준비를 철저히 하시고, 지원 동기와 학업계획을 명확하게 준비하시면 더 나은 결과를 얻을 수 있을 것입니다.
+더 자세한 정보나 도움이 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차를 정확하게 나열하고 있으며, 추가적으로 입학사정관 2인이 평가위원으로 참여한다는 정보를 포함하고 있습니다. 그러나 원본 텍스트에는 이 정보가 포함되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차와 일치하며, 추가 정보도 관련성이 있습니다. 그러나 원본 텍스트에 없는 정보를 포함하고 있어 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 면접 절차에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 절차를 명확하게 설명하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 면접 절차에 대한 정보는 정확하지만, 원본 텍스트에 없는 추가 정보가 포함되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 원본 텍스트와의 완전한 일치가 부족하여 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트에 없는 정보를 포함하고 있어 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.8673480903835492</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. **대기실 입실**
+2. **신분 확인**
+3. **고사장 앞 이동**
+4. **고사장 입실**
+5. **지원동기 및 학업계획 발표**
+6. **학업역량, 전공적합성 관련 공통문항 발표 및 질의응답**
+7. **기타 질의응답 (제출서류 진위 여부 등)**
+8. **퇴실**
+이 절차는 입학사정관 2인이 평가위원으로 참여하여 수험생을 대상으로 개별적으로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
